--- a/PythonResources/Data/Consumption/Sympheny/post_1631_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1631_coo.xlsx
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.7938473838427592</v>
+        <v>0.7938473838427591</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -823,7 +823,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>14.24407307784964</v>
+        <v>14.24407307784963</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>26.89788408571508</v>
+        <v>26.89788408571507</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2.732699870052302</v>
+        <v>2.732699870052301</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>0.2972912616180687</v>
+        <v>0.2972912616180686</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>0.4837782249390559</v>
+        <v>0.4837782249390558</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>4.99176177310323</v>
+        <v>4.991761773103229</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>0.975281802457225</v>
+        <v>0.9752818024572248</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>2.198853388868342</v>
+        <v>2.198853388868341</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>0.942337687001303</v>
+        <v>0.9423376870013028</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>0.9223473114542128</v>
+        <v>0.9223473114542126</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>0.2225212198085543</v>
+        <v>0.2225212198085542</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>0.2643395263151417</v>
+        <v>0.2643395263151416</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>0.7117259480994638</v>
+        <v>0.7117259480994637</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>8.550259631633152</v>
+        <v>8.55025963163315</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>19.00624299926557</v>
+        <v>19.00624299926556</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>1.38037924564687</v>
+        <v>1.380379245646869</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>19.88176342016247</v>
+        <v>19.88176342016246</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>2.8760116079577</v>
+        <v>2.876011607957699</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>44.94977055468384</v>
+        <v>44.94977055468383</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>52.33047159233116</v>
+        <v>52.33047159233115</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>15.62719253770799</v>
+        <v>15.62719253770798</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>6.216388415253528</v>
+        <v>6.216388415253527</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>5.127922577665292</v>
+        <v>5.127922577665291</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>2.675981831940172</v>
+        <v>2.675981831940171</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>30.62475125595594</v>
+        <v>30.62475125595593</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>24.92132507967137</v>
+        <v>24.92132507967136</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>14.08725076506195</v>
+        <v>14.08725076506194</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>0.7960776544469721</v>
+        <v>0.796077654446972</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>0.8770971430849011</v>
+        <v>0.8770971430849009</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>6.811527773463122</v>
+        <v>6.811527773463121</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>0.9937218322097968</v>
+        <v>0.9937218322097966</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>0.8082430332618046</v>
+        <v>0.8082430332618045</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>0.909244105315664</v>
+        <v>0.9092441053156638</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>0.786025317820888</v>
+        <v>0.7860253178208879</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>0.6286989228467046</v>
+        <v>0.6286989228467045</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>0.5850518530588704</v>
+        <v>0.5850518530588703</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>2.896664324052165</v>
+        <v>2.896664324052164</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>13.11680463474264</v>
+        <v>13.11680463474263</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>4.775358118155693</v>
+        <v>4.775358118155692</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>0.2818950676730336</v>
+        <v>0.2818950676730335</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>0.91020830903286</v>
+        <v>0.9102083090328598</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>0.7863975180399879</v>
+        <v>0.7863975180399878</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>0.5977154526394272</v>
+        <v>0.597715452639427</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>0.5522161738872533</v>
+        <v>0.5522161738872532</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>20.64228276548866</v>
+        <v>20.64228276548865</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>0.6327022732348185</v>
+        <v>0.6327022732348184</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>0.5879239492377516</v>
+        <v>0.5879239492377515</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>0.659190033709031</v>
+        <v>0.6591900337090308</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>0.2674229267128977</v>
+        <v>0.2674229267128976</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>572</v>
       </c>
       <c r="B572">
-        <v>0.7784992535480646</v>
+        <v>0.7784992535480645</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>1.20376877632877</v>
+        <v>1.203768776328769</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>0.6680993932843359</v>
+        <v>0.6680993932843358</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>0.7494178143816993</v>
+        <v>0.7494178143816992</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>0.7539252469563108</v>
+        <v>0.7539252469563107</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>631</v>
       </c>
       <c r="B631">
-        <v>0.4385280565697442</v>
+        <v>0.4385280565697441</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>0.3602546435640721</v>
+        <v>0.360254643564072</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>3.359326780655671</v>
+        <v>3.35932678065567</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>20.80772136681299</v>
+        <v>20.80772136681298</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>642</v>
       </c>
       <c r="B642">
-        <v>0.5018020938167287</v>
+        <v>0.5018020938167286</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>0.7380144202673864</v>
+        <v>0.7380144202673863</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>0.4726444561803114</v>
+        <v>0.4726444561803113</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>0.3000842286165113</v>
+        <v>0.3000842286165112</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>20.08213608929524</v>
+        <v>20.08213608929523</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>0.4314005689095003</v>
+        <v>0.4314005689095002</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>0.8922547772044658</v>
+        <v>0.8922547772044657</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>708</v>
       </c>
       <c r="B708">
-        <v>0.7505109693559061</v>
+        <v>0.750510969355906</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>1.435922068893968</v>
+        <v>1.435922068893967</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>720</v>
       </c>
       <c r="B720">
-        <v>0.9619646544604534</v>
+        <v>0.9619646544604532</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>0.6282358706056197</v>
+        <v>0.6282358706056196</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>5.992951055378118</v>
+        <v>5.992951055378117</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>0.5282605471870749</v>
+        <v>0.5282605471870748</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>0.5693051461515963</v>
+        <v>0.5693051461515962</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>0.8001630647259113</v>
+        <v>0.8001630647259111</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>6.067185949471036</v>
+        <v>6.067185949471035</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>0.8492172951770472</v>
+        <v>0.8492172951770471</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>793</v>
       </c>
       <c r="B793">
-        <v>0.6609044992851998</v>
+        <v>0.6609044992851997</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>798</v>
       </c>
       <c r="B798">
-        <v>0.4291380604910347</v>
+        <v>0.4291380604910346</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>0.8452227369200931</v>
+        <v>0.845222736920093</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>0.7968806690929042</v>
+        <v>0.7968806690929041</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>0.8334471425866803</v>
+        <v>0.8334471425866802</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>838</v>
       </c>
       <c r="B838">
-        <v>0.5405724615212381</v>
+        <v>0.5405724615212379</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>0.4815039936790439</v>
+        <v>0.4815039936790438</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>0.4125795468066687</v>
+        <v>0.4125795468066686</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>2.191998457274053</v>
+        <v>2.191998457274052</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>8.425440676267284</v>
+        <v>8.425440676267282</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>20.01971195806037</v>
+        <v>20.01971195806036</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>881</v>
       </c>
       <c r="B881">
-        <v>7.720780670909946</v>
+        <v>7.720780670909945</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>0.922769333749885</v>
+        <v>0.9227693337498848</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>888</v>
       </c>
       <c r="B888">
-        <v>0.800725761120141</v>
+        <v>0.8007257611201409</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>0.522695128162896</v>
+        <v>0.5226951281628959</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>0.995213563796583</v>
+        <v>0.9952135637965828</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>943</v>
       </c>
       <c r="B943">
-        <v>1.217217806292939</v>
+        <v>1.217217806292938</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>2.266763809946949</v>
+        <v>2.266763809946948</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>994</v>
       </c>
       <c r="B994">
-        <v>1.04239800102106</v>
+        <v>1.042398001021059</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>9.700475537067334</v>
+        <v>9.700475537067332</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8383,7 +8383,7 @@
         <v>1005</v>
       </c>
       <c r="B1005">
-        <v>6.002094871784352</v>
+        <v>6.002094871784351</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>4.008596359706015</v>
+        <v>4.008596359706014</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>0.7473370100072038</v>
+        <v>0.7473370100072037</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>1.637877321635501</v>
+        <v>1.6378773216355</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>0.672548211651215</v>
+        <v>0.6725482116512149</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>5.688420939105114</v>
+        <v>5.688420939105113</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>0.3348952065887059</v>
+        <v>0.3348952065887058</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>0.5335241030414327</v>
+        <v>0.5335241030414326</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>0.9765742457377214</v>
+        <v>0.9765742457377212</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>1.016499313334557</v>
+        <v>1.016499313334556</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>0.5346582879610521</v>
+        <v>0.534658287961052</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>0.821469329236591</v>
+        <v>0.8214693292365909</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>0.6641956870493667</v>
+        <v>0.6641956870493666</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>0.5858636598359623</v>
+        <v>0.5858636598359622</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>1.229213203905348</v>
+        <v>1.229213203905347</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>0.2866706602480202</v>
+        <v>0.2866706602480201</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10231,7 +10231,7 @@
         <v>1236</v>
       </c>
       <c r="B1236">
-        <v>0.4951874804741421</v>
+        <v>0.495187480474142</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -10255,7 +10255,7 @@
         <v>1239</v>
       </c>
       <c r="B1239">
-        <v>4.508282480623609</v>
+        <v>4.508282480623608</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>1.699477923251729</v>
+        <v>1.699477923251728</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10335,7 +10335,7 @@
         <v>1249</v>
       </c>
       <c r="B1249">
-        <v>2.918117124082176</v>
+        <v>2.918117124082175</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>2.153286703777276</v>
+        <v>2.153286703777275</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>0.5049350232200185</v>
+        <v>0.5049350232200184</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>0.9555141608995172</v>
+        <v>0.955514160899517</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>2.971593796506711</v>
+        <v>2.97159379650671</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>5.0723563087351</v>
+        <v>5.072356308735099</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>40.22868919288823</v>
+        <v>40.22868919288822</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>44.27189724226015</v>
+        <v>44.27189724226014</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11047,7 +11047,7 @@
         <v>1338</v>
       </c>
       <c r="B1338">
-        <v>14.81101900214001</v>
+        <v>14.81101900214</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>1346</v>
       </c>
       <c r="B1346">
-        <v>6.472473888835811</v>
+        <v>6.47247388883581</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>4.206096932659896</v>
+        <v>4.206096932659895</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11143,7 +11143,7 @@
         <v>1350</v>
       </c>
       <c r="B1350">
-        <v>2.161700773297243</v>
+        <v>2.161700773297242</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>1.277282715666582</v>
+        <v>1.277282715666581</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>1.526085373938131</v>
+        <v>1.52608537393813</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>6.488739331481516</v>
+        <v>6.488739331481515</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>1.776230297566749</v>
+        <v>1.776230297566748</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>1380</v>
       </c>
       <c r="B1380">
-        <v>0.8568019736576029</v>
+        <v>0.8568019736576028</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11423,7 +11423,7 @@
         <v>1385</v>
       </c>
       <c r="B1385">
-        <v>3.677455393122561</v>
+        <v>3.67745539312256</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11455,7 +11455,7 @@
         <v>1389</v>
       </c>
       <c r="B1389">
-        <v>16.04692887927877</v>
+        <v>16.04692887927876</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>1394</v>
       </c>
       <c r="B1394">
-        <v>4.503095123239303</v>
+        <v>4.503095123239302</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11511,7 +11511,7 @@
         <v>1396</v>
       </c>
       <c r="B1396">
-        <v>3.093247584655036</v>
+        <v>3.093247584655035</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>7.273173273562472</v>
+        <v>7.273173273562471</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>1417</v>
       </c>
       <c r="B1417">
-        <v>1.992912370001015</v>
+        <v>1.992912370001014</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11711,7 +11711,7 @@
         <v>1421</v>
       </c>
       <c r="B1421">
-        <v>1.015687506557465</v>
+        <v>1.015687506557464</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>0.8702275579386791</v>
+        <v>0.870227557938679</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>0.8400764094811999</v>
+        <v>0.8400764094811998</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -11943,7 +11943,7 @@
         <v>1450</v>
       </c>
       <c r="B1450">
-        <v>0.449940242815217</v>
+        <v>0.4499402428152169</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>0.6939804967085192</v>
+        <v>0.6939804967085191</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>0.7075145172739001</v>
+        <v>0.7075145172739</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12119,7 +12119,7 @@
         <v>1472</v>
       </c>
       <c r="B1472">
-        <v>0.639158628216528</v>
+        <v>0.6391586282165279</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>16.25207860634171</v>
+        <v>16.2520786063417</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>9.346416415260562</v>
+        <v>9.34641641526056</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>5.64607217401855</v>
+        <v>5.646072174018549</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>1.578890913684132</v>
+        <v>1.578890913684131</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12319,7 +12319,7 @@
         <v>1497</v>
       </c>
       <c r="B1497">
-        <v>0.7727814375837818</v>
+        <v>0.7727814375837817</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
@@ -12391,7 +12391,7 @@
         <v>1506</v>
       </c>
       <c r="B1506">
-        <v>7.244129933631133</v>
+        <v>7.244129933631132</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
@@ -12471,7 +12471,7 @@
         <v>1516</v>
       </c>
       <c r="B1516">
-        <v>0.9716359987362778</v>
+        <v>0.9716359987362776</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>21.04335048189671</v>
+        <v>21.0433504818967</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12775,7 +12775,7 @@
         <v>1554</v>
       </c>
       <c r="B1554">
-        <v>14.6188230149859</v>
+        <v>14.61882301498589</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12783,7 +12783,7 @@
         <v>1555</v>
       </c>
       <c r="B1555">
-        <v>26.61507053340688</v>
+        <v>26.61507053340687</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>1.484226037486131</v>
+        <v>1.48422603748613</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>14.42504444422302</v>
+        <v>14.42504444422301</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>34.32594540321007</v>
+        <v>34.32594540321006</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>13.8514751144589</v>
+        <v>13.85147511445889</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>5.254118966912866</v>
+        <v>5.254118966912865</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>1.655133344391881</v>
+        <v>1.65513334439188</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>0.2679158721999261</v>
+        <v>0.267915872199926</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>0.665869122680123</v>
+        <v>0.6658691226801229</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13631,7 +13631,7 @@
         <v>1661</v>
       </c>
       <c r="B1661">
-        <v>0.7153541675580911</v>
+        <v>0.715354167558091</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>0.814245128133589</v>
+        <v>0.8142451281335888</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13647,7 +13647,7 @@
         <v>1663</v>
       </c>
       <c r="B1663">
-        <v>0.9606956568630498</v>
+        <v>0.9606956568630496</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>1.602204714809642</v>
+        <v>1.602204714809641</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>0.7568676801844707</v>
+        <v>0.7568676801844706</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>0.9079516620351674</v>
+        <v>0.9079516620351672</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>9.185842793178011</v>
+        <v>9.18584279317801</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>23.99059007509067</v>
+        <v>23.99059007509066</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>21.45441192072312</v>
+        <v>21.45441192072311</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -14015,7 +14015,7 @@
         <v>1709</v>
       </c>
       <c r="B1709">
-        <v>1.194156046260678</v>
+        <v>1.194156046260677</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14039,7 +14039,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>0.4962015062679103</v>
+        <v>0.4962015062679102</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>0.5424539775894439</v>
+        <v>0.5424539775894438</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14111,7 +14111,7 @@
         <v>1721</v>
       </c>
       <c r="B1721">
-        <v>12.75597557194279</v>
+        <v>12.75597557194278</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14287,7 +14287,7 @@
         <v>1743</v>
       </c>
       <c r="B1743">
-        <v>23.52279008317943</v>
+        <v>23.52279008317942</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -14319,7 +14319,7 @@
         <v>1747</v>
       </c>
       <c r="B1747">
-        <v>18.68137375290947</v>
+        <v>18.68137375290946</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>0.9806010418089284</v>
+        <v>0.9806010418089282</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>0.9342753027277296</v>
+        <v>0.9342753027277294</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>8.583405966105749</v>
+        <v>8.583405966105747</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>7.039361198918451</v>
+        <v>7.03936119891845</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14711,7 +14711,7 @@
         <v>1796</v>
       </c>
       <c r="B1796">
-        <v>5.210334153736862</v>
+        <v>5.210334153736861</v>
       </c>
     </row>
     <row r="1797" spans="1:2">
@@ -14887,7 +14887,7 @@
         <v>1818</v>
       </c>
       <c r="B1818">
-        <v>8.66930508753739</v>
+        <v>8.669305087537388</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>1.832280133710731</v>
+        <v>1.83228013371073</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -14951,7 +14951,7 @@
         <v>1826</v>
       </c>
       <c r="B1826">
-        <v>0.86339021060671</v>
+        <v>0.8633902106067098</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>0.7513081225810651</v>
+        <v>0.7513081225810649</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>30.66285049098192</v>
+        <v>30.66285049098191</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15207,7 +15207,7 @@
         <v>1858</v>
       </c>
       <c r="B1858">
-        <v>7.991431775113698</v>
+        <v>7.991431775113697</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>57.88651234327294</v>
+        <v>57.88651234327293</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>4.305067022415832</v>
+        <v>4.305067022415831</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>2.125037586360709</v>
+        <v>2.125037586360708</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>0.7369681566593653</v>
+        <v>0.7369681566593652</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>4.736233134494404</v>
+        <v>4.736233134494403</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>0.6289070032841542</v>
+        <v>0.6289070032841541</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>16.41880672023615</v>
+        <v>16.41880672023614</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>33.31719488813772</v>
+        <v>33.31719488813771</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>1.813227585487357</v>
+        <v>1.813227585487356</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15767,7 +15767,7 @@
         <v>1928</v>
       </c>
       <c r="B1928">
-        <v>0.4449551044475875</v>
+        <v>0.4449551044475874</v>
       </c>
     </row>
     <row r="1929" spans="1:2">
@@ -15831,7 +15831,7 @@
         <v>1936</v>
       </c>
       <c r="B1936">
-        <v>38.56287340913714</v>
+        <v>38.56287340913713</v>
       </c>
     </row>
     <row r="1937" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>0.7727726454526219</v>
+        <v>0.7727726454526218</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>1.042846399710212</v>
+        <v>1.042846399710211</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>1.419372347340762</v>
+        <v>1.419372347340761</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16535,7 +16535,7 @@
         <v>2024</v>
       </c>
       <c r="B2024">
-        <v>0.3494227379751488</v>
+        <v>0.3494227379751487</v>
       </c>
     </row>
     <row r="2025" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>1.141447219957435</v>
+        <v>1.141447219957434</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -17015,7 +17015,7 @@
         <v>2084</v>
       </c>
       <c r="B2084">
-        <v>3.143831645927984</v>
+        <v>3.143831645927983</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>1.942211080312602</v>
+        <v>1.942211080312601</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17263,7 +17263,7 @@
         <v>2115</v>
       </c>
       <c r="B2115">
-        <v>1.287631054041714</v>
+        <v>1.287631054041713</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>2.486649148833783</v>
+        <v>2.486649148833782</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17439,7 +17439,7 @@
         <v>2137</v>
       </c>
       <c r="B2137">
-        <v>2.873637732544543</v>
+        <v>2.873637732544542</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -17503,7 +17503,7 @@
         <v>2145</v>
       </c>
       <c r="B2145">
-        <v>0.8668953402290995</v>
+        <v>0.8668953402290994</v>
       </c>
     </row>
     <row r="2146" spans="1:2">
@@ -17511,7 +17511,7 @@
         <v>2146</v>
       </c>
       <c r="B2146">
-        <v>0.9082095645491894</v>
+        <v>0.9082095645491892</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>0.8049606376287974</v>
+        <v>0.8049606376287973</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>5.051225886847617</v>
+        <v>5.051225886847616</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17727,7 +17727,7 @@
         <v>2173</v>
       </c>
       <c r="B2173">
-        <v>18.1068079816139</v>
+        <v>18.10680798161389</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>21.19038422199311</v>
+        <v>21.1903842219931</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>9.980094615054124</v>
+        <v>9.980094615054121</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17815,7 +17815,7 @@
         <v>2184</v>
       </c>
       <c r="B2184">
-        <v>1.844375175476285</v>
+        <v>1.844375175476284</v>
       </c>
     </row>
     <row r="2185" spans="1:2">
@@ -17959,7 +17959,7 @@
         <v>2202</v>
       </c>
       <c r="B2202">
-        <v>62.78343632826536</v>
+        <v>62.78343632826535</v>
       </c>
     </row>
     <row r="2203" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>6.839984971317138</v>
+        <v>6.839984971317137</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>38.12209456699048</v>
+        <v>38.12209456699047</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18351,7 +18351,7 @@
         <v>2251</v>
       </c>
       <c r="B2251">
-        <v>73.14320447390526</v>
+        <v>73.14320447390524</v>
       </c>
     </row>
     <row r="2252" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>2.540040830657107</v>
+        <v>2.540040830657106</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>21.82687590375782</v>
+        <v>21.82687590375781</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18535,7 +18535,7 @@
         <v>2274</v>
       </c>
       <c r="B2274">
-        <v>46.9622893771713</v>
+        <v>46.96228937717129</v>
       </c>
     </row>
     <row r="2275" spans="1:2">
@@ -18543,7 +18543,7 @@
         <v>2275</v>
       </c>
       <c r="B2275">
-        <v>37.40084674084491</v>
+        <v>37.4008467408449</v>
       </c>
     </row>
     <row r="2276" spans="1:2">
@@ -18679,7 +18679,7 @@
         <v>2292</v>
       </c>
       <c r="B2292">
-        <v>2.101744300207905</v>
+        <v>2.101744300207904</v>
       </c>
     </row>
     <row r="2293" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>30.7115002833997</v>
+        <v>30.71150028339969</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18791,7 +18791,7 @@
         <v>2306</v>
       </c>
       <c r="B2306">
-        <v>7.23785821340378</v>
+        <v>7.237858213403779</v>
       </c>
     </row>
     <row r="2307" spans="1:2">
@@ -18879,7 +18879,7 @@
         <v>2317</v>
       </c>
       <c r="B2317">
-        <v>42.72536137124423</v>
+        <v>42.72536137124422</v>
       </c>
     </row>
     <row r="2318" spans="1:2">
@@ -18927,7 +18927,7 @@
         <v>2323</v>
       </c>
       <c r="B2323">
-        <v>62.00093665503957</v>
+        <v>62.00093665503956</v>
       </c>
     </row>
     <row r="2324" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>45.22965339660542</v>
+        <v>45.22965339660541</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -19183,7 +19183,7 @@
         <v>2355</v>
       </c>
       <c r="B2355">
-        <v>1.688912712307988</v>
+        <v>1.688912712307987</v>
       </c>
     </row>
     <row r="2356" spans="1:2">
@@ -19255,7 +19255,7 @@
         <v>2364</v>
       </c>
       <c r="B2364">
-        <v>7.067408097318342</v>
+        <v>7.067408097318341</v>
       </c>
     </row>
     <row r="2365" spans="1:2">
@@ -19295,7 +19295,7 @@
         <v>2369</v>
       </c>
       <c r="B2369">
-        <v>6.063463947280038</v>
+        <v>6.063463947280037</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>24.97059032127034</v>
+        <v>24.97059032127033</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>4.374817929617232</v>
+        <v>4.374817929617231</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>39.81868280980101</v>
+        <v>39.818682809801</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19511,7 +19511,7 @@
         <v>2396</v>
       </c>
       <c r="B2396">
-        <v>13.59603439716167</v>
+        <v>13.59603439716166</v>
       </c>
     </row>
     <row r="2397" spans="1:2">
@@ -19519,7 +19519,7 @@
         <v>2397</v>
       </c>
       <c r="B2397">
-        <v>8.531151399912432</v>
+        <v>8.53115139991243</v>
       </c>
     </row>
     <row r="2398" spans="1:2">
@@ -19527,7 +19527,7 @@
         <v>2398</v>
       </c>
       <c r="B2398">
-        <v>4.826352478882767</v>
+        <v>4.826352478882766</v>
       </c>
     </row>
     <row r="2399" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>26.10641643870625</v>
+        <v>26.10641643870624</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>4.491108517758054</v>
+        <v>4.491108517758053</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>55.16300318099306</v>
+        <v>55.16300318099305</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>5.375157305880002</v>
+        <v>5.375157305880001</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -20127,7 +20127,7 @@
         <v>2473</v>
       </c>
       <c r="B2473">
-        <v>2.558375354835761</v>
+        <v>2.55837535483576</v>
       </c>
     </row>
     <row r="2474" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>9.010000169981204</v>
+        <v>9.010000169981202</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20199,7 +20199,7 @@
         <v>2482</v>
       </c>
       <c r="B2482">
-        <v>11.34888290112194</v>
+        <v>11.34888290112193</v>
       </c>
     </row>
     <row r="2483" spans="1:2">
@@ -20255,7 +20255,7 @@
         <v>2489</v>
       </c>
       <c r="B2489">
-        <v>30.04007453382656</v>
+        <v>30.04007453382655</v>
       </c>
     </row>
     <row r="2490" spans="1:2">
@@ -20431,7 +20431,7 @@
         <v>2511</v>
       </c>
       <c r="B2511">
-        <v>32.43299956449644</v>
+        <v>32.43299956449643</v>
       </c>
     </row>
     <row r="2512" spans="1:2">
@@ -20575,7 +20575,7 @@
         <v>2529</v>
       </c>
       <c r="B2529">
-        <v>5.725465118391908</v>
+        <v>5.725465118391907</v>
       </c>
     </row>
     <row r="2530" spans="1:2">
@@ -20583,7 +20583,7 @@
         <v>2530</v>
       </c>
       <c r="B2530">
-        <v>9.940676560354172</v>
+        <v>9.94067656035417</v>
       </c>
     </row>
     <row r="2531" spans="1:2">
@@ -20647,7 +20647,7 @@
         <v>2538</v>
       </c>
       <c r="B2538">
-        <v>79.56116714955006</v>
+        <v>79.56116714955004</v>
       </c>
     </row>
     <row r="2539" spans="1:2">
@@ -20663,7 +20663,7 @@
         <v>2540</v>
       </c>
       <c r="B2540">
-        <v>40.21843170653508</v>
+        <v>40.21843170653507</v>
       </c>
     </row>
     <row r="2541" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>3.353904966440436</v>
+        <v>3.353904966440435</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20775,7 +20775,7 @@
         <v>2554</v>
       </c>
       <c r="B2554">
-        <v>1.355805239055116</v>
+        <v>1.355805239055115</v>
       </c>
     </row>
     <row r="2555" spans="1:2">
@@ -20847,7 +20847,7 @@
         <v>2563</v>
       </c>
       <c r="B2563">
-        <v>5.470698464483601</v>
+        <v>5.4706984644836</v>
       </c>
     </row>
     <row r="2564" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>0.8022761069146596</v>
+        <v>0.8022761069146594</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>6.633106125126094</v>
+        <v>6.633106125126093</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21415,7 +21415,7 @@
         <v>2634</v>
       </c>
       <c r="B2634">
-        <v>71.09258641639182</v>
+        <v>71.09258641639181</v>
       </c>
     </row>
     <row r="2635" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>1.552347469712574</v>
+        <v>1.552347469712573</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21631,7 +21631,7 @@
         <v>2661</v>
       </c>
       <c r="B2661">
-        <v>3.59656778645203</v>
+        <v>3.596567786452029</v>
       </c>
     </row>
     <row r="2662" spans="1:2">
@@ -21839,7 +21839,7 @@
         <v>2687</v>
       </c>
       <c r="B2687">
-        <v>5.940227575522942</v>
+        <v>5.940227575522941</v>
       </c>
     </row>
     <row r="2688" spans="1:2">
@@ -21855,7 +21855,7 @@
         <v>2689</v>
       </c>
       <c r="B2689">
-        <v>2.934813381154712</v>
+        <v>2.934813381154711</v>
       </c>
     </row>
     <row r="2690" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>0.8859977105290461</v>
+        <v>0.885997710529046</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>0.718463651278288</v>
+        <v>0.7184636512782879</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22023,7 +22023,7 @@
         <v>2710</v>
       </c>
       <c r="B2710">
-        <v>3.082257420705235</v>
+        <v>3.082257420705234</v>
       </c>
     </row>
     <row r="2711" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>0.5208136120946901</v>
+        <v>0.52081361209469</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22191,7 +22191,7 @@
         <v>2731</v>
       </c>
       <c r="B2731">
-        <v>24.30027824164411</v>
+        <v>24.3002782416441</v>
       </c>
     </row>
     <row r="2732" spans="1:2">
@@ -22223,7 +22223,7 @@
         <v>2735</v>
       </c>
       <c r="B2735">
-        <v>5.157141760219828</v>
+        <v>5.157141760219827</v>
       </c>
     </row>
     <row r="2736" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>3.511401342617043</v>
+        <v>3.511401342617042</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>1.493876866789249</v>
+        <v>1.493876866789248</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22319,7 +22319,7 @@
         <v>2747</v>
       </c>
       <c r="B2747">
-        <v>13.23538117698502</v>
+        <v>13.23538117698501</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>22.65433267431426</v>
+        <v>22.65433267431425</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22383,7 +22383,7 @@
         <v>2755</v>
       </c>
       <c r="B2755">
-        <v>46.48575586830795</v>
+        <v>46.48575586830794</v>
       </c>
     </row>
     <row r="2756" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>4.415554803991159</v>
+        <v>4.415554803991158</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22439,7 +22439,7 @@
         <v>2762</v>
       </c>
       <c r="B2762">
-        <v>2.939092218319168</v>
+        <v>2.939092218319167</v>
       </c>
     </row>
     <row r="2763" spans="1:2">
@@ -22495,7 +22495,7 @@
         <v>2769</v>
       </c>
       <c r="B2769">
-        <v>15.91454869111544</v>
+        <v>15.91454869111543</v>
       </c>
     </row>
     <row r="2770" spans="1:2">
@@ -22511,7 +22511,7 @@
         <v>2771</v>
       </c>
       <c r="B2771">
-        <v>21.64833702700533</v>
+        <v>21.64833702700532</v>
       </c>
     </row>
     <row r="2772" spans="1:2">
@@ -22519,7 +22519,7 @@
         <v>2772</v>
       </c>
       <c r="B2772">
-        <v>25.63043976481636</v>
+        <v>25.63043976481635</v>
       </c>
     </row>
     <row r="2773" spans="1:2">
@@ -22567,7 +22567,7 @@
         <v>2778</v>
       </c>
       <c r="B2778">
-        <v>85.36983513581792</v>
+        <v>85.36983513581791</v>
       </c>
     </row>
     <row r="2779" spans="1:2">
@@ -22583,7 +22583,7 @@
         <v>2780</v>
       </c>
       <c r="B2780">
-        <v>41.2986915550408</v>
+        <v>41.29869155504079</v>
       </c>
     </row>
     <row r="2781" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>12.13094296778974</v>
+        <v>12.13094296778973</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>2.248572890577239</v>
+        <v>2.248572890577238</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>1.778996888171712</v>
+        <v>1.778996888171711</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23079,7 +23079,7 @@
         <v>2842</v>
       </c>
       <c r="B2842">
-        <v>8.726688396907281</v>
+        <v>8.72668839690728</v>
       </c>
     </row>
     <row r="2843" spans="1:2">
@@ -23183,7 +23183,7 @@
         <v>2855</v>
       </c>
       <c r="B2855">
-        <v>12.99899007720078</v>
+        <v>12.99899007720077</v>
       </c>
     </row>
     <row r="2856" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>8.149748750198556</v>
+        <v>8.149748750198555</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>43.18929282544514</v>
+        <v>43.18929282544513</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>51.98640619294274</v>
+        <v>51.98640619294273</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>54.13168619594379</v>
+        <v>54.13168619594378</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23359,7 +23359,7 @@
         <v>2877</v>
       </c>
       <c r="B2877">
-        <v>42.13980543599886</v>
+        <v>42.13980543599885</v>
       </c>
     </row>
     <row r="2878" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>3.37131338613692</v>
+        <v>3.371313386136919</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>2.825530121548283</v>
+        <v>2.825530121548282</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>14.66257852105804</v>
+        <v>14.66257852105803</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23503,7 +23503,7 @@
         <v>2895</v>
       </c>
       <c r="B2895">
-        <v>57.51489826625036</v>
+        <v>57.51489826625035</v>
       </c>
     </row>
     <row r="2896" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>10.0586962676231</v>
+        <v>10.05869626762309</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>52.99486363697643</v>
+        <v>52.99486363697642</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23687,7 +23687,7 @@
         <v>2918</v>
       </c>
       <c r="B2918">
-        <v>43.20717015880348</v>
+        <v>43.20717015880347</v>
       </c>
     </row>
     <row r="2919" spans="1:2">
@@ -23695,7 +23695,7 @@
         <v>2919</v>
       </c>
       <c r="B2919">
-        <v>39.27855288554815</v>
+        <v>39.27855288554814</v>
       </c>
     </row>
     <row r="2920" spans="1:2">
@@ -23711,7 +23711,7 @@
         <v>2921</v>
       </c>
       <c r="B2921">
-        <v>39.73720906105315</v>
+        <v>39.73720906105314</v>
       </c>
     </row>
     <row r="2922" spans="1:2">
@@ -23759,7 +23759,7 @@
         <v>2927</v>
       </c>
       <c r="B2927">
-        <v>44.62358248865376</v>
+        <v>44.62358248865375</v>
       </c>
     </row>
     <row r="2928" spans="1:2">
@@ -23959,7 +23959,7 @@
         <v>2952</v>
       </c>
       <c r="B2952">
-        <v>5.101751333912834</v>
+        <v>5.101751333912833</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>7.056476547576274</v>
+        <v>7.056476547576273</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>22.75104611707251</v>
+        <v>22.7510461170725</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24407,7 +24407,7 @@
         <v>3008</v>
       </c>
       <c r="B3008">
-        <v>13.63811939831344</v>
+        <v>13.63811939831343</v>
       </c>
     </row>
     <row r="3009" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>35.67348603897494</v>
+        <v>35.67348603897493</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -24511,7 +24511,7 @@
         <v>3021</v>
       </c>
       <c r="B3021">
-        <v>42.08119122826659</v>
+        <v>42.08119122826658</v>
       </c>
     </row>
     <row r="3022" spans="1:2">
@@ -24543,7 +24543,7 @@
         <v>3025</v>
       </c>
       <c r="B3025">
-        <v>19.23445741707116</v>
+        <v>19.23445741707115</v>
       </c>
     </row>
     <row r="3026" spans="1:2">
@@ -24639,7 +24639,7 @@
         <v>3037</v>
       </c>
       <c r="B3037">
-        <v>18.80601686565214</v>
+        <v>18.80601686565213</v>
       </c>
     </row>
     <row r="3038" spans="1:2">
@@ -24663,7 +24663,7 @@
         <v>3040</v>
       </c>
       <c r="B3040">
-        <v>32.18857831825288</v>
+        <v>32.18857831825287</v>
       </c>
     </row>
     <row r="3041" spans="1:2">
@@ -24727,7 +24727,7 @@
         <v>3048</v>
       </c>
       <c r="B3048">
-        <v>32.12967103948195</v>
+        <v>32.12967103948194</v>
       </c>
     </row>
     <row r="3049" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>27.22193273316293</v>
+        <v>27.22193273316292</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -24871,7 +24871,7 @@
         <v>3066</v>
       </c>
       <c r="B3066">
-        <v>82.61789808278789</v>
+        <v>82.61789808278787</v>
       </c>
     </row>
     <row r="3067" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>8.826742849506264</v>
+        <v>8.826742849506262</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>3.637333967929823</v>
+        <v>3.637333967929822</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>28.01612594083131</v>
+        <v>28.0161259408313</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>61.98335239271989</v>
+        <v>61.98335239271988</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25335,7 +25335,7 @@
         <v>3124</v>
       </c>
       <c r="B3124">
-        <v>3.806113579094892</v>
+        <v>3.806113579094891</v>
       </c>
     </row>
     <row r="3125" spans="1:2">
@@ -25415,7 +25415,7 @@
         <v>3134</v>
       </c>
       <c r="B3134">
-        <v>43.48207079306782</v>
+        <v>43.48207079306781</v>
       </c>
     </row>
     <row r="3135" spans="1:2">
@@ -25423,7 +25423,7 @@
         <v>3135</v>
       </c>
       <c r="B3135">
-        <v>56.06009363033544</v>
+        <v>56.06009363033543</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25479,7 +25479,7 @@
         <v>3142</v>
       </c>
       <c r="B3142">
-        <v>43.86921763513946</v>
+        <v>43.86921763513945</v>
       </c>
     </row>
     <row r="3143" spans="1:2">
@@ -25511,7 +25511,7 @@
         <v>3146</v>
       </c>
       <c r="B3146">
-        <v>11.89909446910475</v>
+        <v>11.89909446910474</v>
       </c>
     </row>
     <row r="3147" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>3150</v>
       </c>
       <c r="B3150">
-        <v>5.903974688040534</v>
+        <v>5.903974688040533</v>
       </c>
     </row>
     <row r="3151" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>60.96668895960368</v>
+        <v>60.96668895960367</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>99.79948079534792</v>
+        <v>99.7994807953479</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -25847,7 +25847,7 @@
         <v>3188</v>
       </c>
       <c r="B3188">
-        <v>57.2317916429035</v>
+        <v>57.23179164290349</v>
       </c>
     </row>
     <row r="3189" spans="1:2">
@@ -26087,7 +26087,7 @@
         <v>3218</v>
       </c>
       <c r="B3218">
-        <v>3.163291562895097</v>
+        <v>3.163291562895096</v>
       </c>
     </row>
     <row r="3219" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>17.69513109360631</v>
+        <v>17.6951310936063</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26207,7 +26207,7 @@
         <v>3233</v>
       </c>
       <c r="B3233">
-        <v>53.40018088344507</v>
+        <v>53.40018088344506</v>
       </c>
     </row>
     <row r="3234" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>62.42120052447994</v>
+        <v>62.42120052447993</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -26591,7 +26591,7 @@
         <v>3281</v>
       </c>
       <c r="B3281">
-        <v>48.21839184887382</v>
+        <v>48.21839184887381</v>
       </c>
     </row>
     <row r="3282" spans="1:2">
@@ -26623,7 +26623,7 @@
         <v>3285</v>
       </c>
       <c r="B3285">
-        <v>64.94483523839278</v>
+        <v>64.94483523839277</v>
       </c>
     </row>
     <row r="3286" spans="1:2">
@@ -26647,7 +26647,7 @@
         <v>3288</v>
       </c>
       <c r="B3288">
-        <v>37.3296304784502</v>
+        <v>37.32963047845019</v>
       </c>
     </row>
     <row r="3289" spans="1:2">
@@ -26663,7 +26663,7 @@
         <v>3290</v>
       </c>
       <c r="B3290">
-        <v>25.89543459797395</v>
+        <v>25.89543459797394</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>17.64047334489597</v>
+        <v>17.64047334489596</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>9.40435655960391</v>
+        <v>9.404356559603908</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>2.500142139453751</v>
+        <v>2.50014213945375</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>6.953227620655882</v>
+        <v>6.953227620655881</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>4.154047516193641</v>
+        <v>4.15404751619364</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27039,7 +27039,7 @@
         <v>3337</v>
       </c>
       <c r="B3337">
-        <v>2.967021888303594</v>
+        <v>2.967021888303593</v>
       </c>
     </row>
     <row r="3338" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>3.808106462157789</v>
+        <v>3.808106462157788</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27135,7 +27135,7 @@
         <v>3349</v>
       </c>
       <c r="B3349">
-        <v>17.80778760086773</v>
+        <v>17.80778760086772</v>
       </c>
     </row>
     <row r="3350" spans="1:2">
@@ -27303,7 +27303,7 @@
         <v>3370</v>
       </c>
       <c r="B3370">
-        <v>7.541040202898942</v>
+        <v>7.541040202898941</v>
       </c>
     </row>
     <row r="3371" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>7.707094253404461</v>
+        <v>7.70709425340446</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>1.585827905169246</v>
+        <v>1.585827905169245</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>2.663719739682581</v>
+        <v>2.66371973968258</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27583,7 +27583,7 @@
         <v>3405</v>
       </c>
       <c r="B3405">
-        <v>33.6304878284667</v>
+        <v>33.63048782846669</v>
       </c>
     </row>
     <row r="3406" spans="1:2">
@@ -27607,7 +27607,7 @@
         <v>3408</v>
       </c>
       <c r="B3408">
-        <v>8.93693756004293</v>
+        <v>8.936937560042928</v>
       </c>
     </row>
     <row r="3409" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>5.20101449470743</v>
+        <v>5.201014494707429</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>3.627164402888274</v>
+        <v>3.627164402888273</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -27663,7 +27663,7 @@
         <v>3415</v>
       </c>
       <c r="B3415">
-        <v>3.811154400959867</v>
+        <v>3.811154400959865</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -27815,7 +27815,7 @@
         <v>3434</v>
       </c>
       <c r="B3434">
-        <v>7.56319637342174</v>
+        <v>7.563196373421739</v>
       </c>
     </row>
     <row r="3435" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>4.964154481261332</v>
+        <v>4.964154481261331</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27991,7 +27991,7 @@
         <v>3456</v>
       </c>
       <c r="B3456">
-        <v>51.80792593039798</v>
+        <v>51.80792593039797</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>47.94554271188011</v>
+        <v>47.9455427118801</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28239,7 +28239,7 @@
         <v>3487</v>
       </c>
       <c r="B3487">
-        <v>3.915399769411707</v>
+        <v>3.915399769411706</v>
       </c>
     </row>
     <row r="3488" spans="1:2">
@@ -28247,7 +28247,7 @@
         <v>3488</v>
       </c>
       <c r="B3488">
-        <v>5.133080627945731</v>
+        <v>5.13308062794573</v>
       </c>
     </row>
     <row r="3489" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>83.34705882697732</v>
+        <v>83.3470588269773</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28431,7 +28431,7 @@
         <v>3511</v>
       </c>
       <c r="B3511">
-        <v>6.784037710036687</v>
+        <v>6.784037710036686</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -28447,7 +28447,7 @@
         <v>3513</v>
       </c>
       <c r="B3513">
-        <v>40.93440425398475</v>
+        <v>40.93440425398474</v>
       </c>
     </row>
     <row r="3514" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>59.06641634492352</v>
+        <v>59.06641634492351</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>72.68953050605749</v>
+        <v>72.68953050605748</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28647,7 +28647,7 @@
         <v>3538</v>
       </c>
       <c r="B3538">
-        <v>49.59377423331152</v>
+        <v>49.59377423331151</v>
       </c>
     </row>
     <row r="3539" spans="1:2">
@@ -28655,7 +28655,7 @@
         <v>3539</v>
       </c>
       <c r="B3539">
-        <v>64.44016690981795</v>
+        <v>64.44016690981793</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -28663,7 +28663,7 @@
         <v>3540</v>
       </c>
       <c r="B3540">
-        <v>68.90627646797819</v>
+        <v>68.90627646797817</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -28695,7 +28695,7 @@
         <v>3544</v>
       </c>
       <c r="B3544">
-        <v>84.67906669769313</v>
+        <v>84.67906669769312</v>
       </c>
     </row>
     <row r="3545" spans="1:2">
@@ -28735,7 +28735,7 @@
         <v>3549</v>
       </c>
       <c r="B3549">
-        <v>66.94768271660442</v>
+        <v>66.9476827166044</v>
       </c>
     </row>
     <row r="3550" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>26.82570068889279</v>
+        <v>26.82570068889278</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>25.64817056265537</v>
+        <v>25.64817056265536</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>53.28793467563777</v>
+        <v>53.28793467563776</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>87.20651133510857</v>
+        <v>87.20651133510856</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28895,7 +28895,7 @@
         <v>3569</v>
       </c>
       <c r="B3569">
-        <v>87.91193332516643</v>
+        <v>87.91193332516642</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>66.52712577612539</v>
+        <v>66.52712577612537</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -28999,7 +28999,7 @@
         <v>3582</v>
       </c>
       <c r="B3582">
-        <v>26.79674527027305</v>
+        <v>26.79674527027304</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -29023,7 +29023,7 @@
         <v>3585</v>
       </c>
       <c r="B3585">
-        <v>29.59284812882935</v>
+        <v>29.59284812882934</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>40.99829374041292</v>
+        <v>40.99829374041291</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>52.31493882728211</v>
+        <v>52.3149388272821</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>55.82329223109707</v>
+        <v>55.82329223109706</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>79.68572234098113</v>
+        <v>79.68572234098112</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29143,7 +29143,7 @@
         <v>3600</v>
       </c>
       <c r="B3600">
-        <v>54.26913651307596</v>
+        <v>54.26913651307595</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>18.09268195755043</v>
+        <v>18.09268195755042</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>3608</v>
       </c>
       <c r="B3608">
-        <v>33.58711331474482</v>
+        <v>33.58711331474481</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>63.62132642779815</v>
+        <v>63.62132642779814</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>82.77879408301297</v>
+        <v>82.77879408301295</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29335,7 +29335,7 @@
         <v>3624</v>
       </c>
       <c r="B3624">
-        <v>64.3692437184619</v>
+        <v>64.36924371846189</v>
       </c>
     </row>
     <row r="3625" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>34.51937228872656</v>
+        <v>34.51937228872655</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29487,7 +29487,7 @@
         <v>3643</v>
       </c>
       <c r="B3643">
-        <v>136.0347840154367</v>
+        <v>136.0347840154366</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -29543,7 +29543,7 @@
         <v>3650</v>
       </c>
       <c r="B3650">
-        <v>33.68910203619897</v>
+        <v>33.68910203619896</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -29599,7 +29599,7 @@
         <v>3657</v>
       </c>
       <c r="B3657">
-        <v>5.050375980835499</v>
+        <v>5.050375980835498</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>53.80051592225647</v>
+        <v>53.80051592225646</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29663,7 +29663,7 @@
         <v>3665</v>
       </c>
       <c r="B3665">
-        <v>44.83488670752859</v>
+        <v>44.83488670752858</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -29831,7 +29831,7 @@
         <v>3686</v>
       </c>
       <c r="B3686">
-        <v>51.38766206095761</v>
+        <v>51.3876620609576</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -29871,7 +29871,7 @@
         <v>3691</v>
       </c>
       <c r="B3691">
-        <v>76.02760963641022</v>
+        <v>76.0276096364102</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -29887,7 +29887,7 @@
         <v>3693</v>
       </c>
       <c r="B3693">
-        <v>46.18799569302802</v>
+        <v>46.18799569302801</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -29943,7 +29943,7 @@
         <v>3700</v>
       </c>
       <c r="B3700">
-        <v>6.614642649690429</v>
+        <v>6.614642649690428</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>21.54385720172256</v>
+        <v>21.54385720172255</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>77.2013591462489</v>
+        <v>77.20135914624889</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30271,7 +30271,7 @@
         <v>3741</v>
       </c>
       <c r="B3741">
-        <v>62.09266789014057</v>
+        <v>62.09266789014056</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -30319,7 +30319,7 @@
         <v>3747</v>
       </c>
       <c r="B3747">
-        <v>30.68717538719081</v>
+        <v>30.6871753871908</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>17.52954595676265</v>
+        <v>17.52954595676264</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>45.93829916808856</v>
+        <v>45.93829916808855</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30543,7 +30543,7 @@
         <v>3775</v>
       </c>
       <c r="B3775">
-        <v>8.969468445334339</v>
+        <v>8.969468445334337</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>73.61739341445931</v>
+        <v>73.6173934144593</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>60.40369949433524</v>
+        <v>60.40369949433523</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>82.31193191842544</v>
+        <v>82.31193191842543</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>127.7804382115399</v>
+        <v>127.7804382115398</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30847,7 +30847,7 @@
         <v>3813</v>
       </c>
       <c r="B3813">
-        <v>62.03962203214287</v>
+        <v>62.03962203214286</v>
       </c>
     </row>
     <row r="3814" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>8.919704982969643</v>
+        <v>8.919704982969641</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -31023,7 +31023,7 @@
         <v>3835</v>
       </c>
       <c r="B3835">
-        <v>93.05620926678904</v>
+        <v>93.056209266789</v>
       </c>
     </row>
     <row r="3836" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>39.38024853596363</v>
+        <v>39.38024853596362</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>6.912402824970356</v>
+        <v>6.912402824970355</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -31127,7 +31127,7 @@
         <v>3848</v>
       </c>
       <c r="B3848">
-        <v>5.312352182294876</v>
+        <v>5.312352182294875</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>33.74771624393124</v>
+        <v>33.74771624393123</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>4.007980910524826</v>
+        <v>4.007980910524825</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>4.329626375455653</v>
+        <v>4.329626375455652</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31407,7 +31407,7 @@
         <v>3883</v>
       </c>
       <c r="B3883">
-        <v>82.67153008286292</v>
+        <v>82.6715300828629</v>
       </c>
     </row>
     <row r="3884" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>28.98885802525218</v>
+        <v>28.98885802525217</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -31527,7 +31527,7 @@
         <v>3898</v>
       </c>
       <c r="B3898">
-        <v>31.81344738876636</v>
+        <v>31.81344738876635</v>
       </c>
     </row>
     <row r="3899" spans="1:2">
@@ -31543,7 +31543,7 @@
         <v>3900</v>
       </c>
       <c r="B3900">
-        <v>43.26812893484504</v>
+        <v>43.26812893484503</v>
       </c>
     </row>
     <row r="3901" spans="1:2">
@@ -31607,7 +31607,7 @@
         <v>3908</v>
       </c>
       <c r="B3908">
-        <v>96.39370225506444</v>
+        <v>96.3937022550644</v>
       </c>
     </row>
     <row r="3909" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>110.1862114765447</v>
+        <v>110.1862114765446</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31799,7 +31799,7 @@
         <v>3932</v>
       </c>
       <c r="B3932">
-        <v>118.8681479258484</v>
+        <v>118.8681479258483</v>
       </c>
     </row>
     <row r="3933" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>75.8230460514246</v>
+        <v>75.82304605142458</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31927,7 +31927,7 @@
         <v>3948</v>
       </c>
       <c r="B3948">
-        <v>85.7566889068509</v>
+        <v>85.75668890685088</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -31983,7 +31983,7 @@
         <v>3955</v>
       </c>
       <c r="B3955">
-        <v>175.8018863224333</v>
+        <v>175.8018863224332</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -32055,7 +32055,7 @@
         <v>3964</v>
       </c>
       <c r="B3964">
-        <v>58.15906840922799</v>
+        <v>58.15906840922798</v>
       </c>
     </row>
     <row r="3965" spans="1:2">
@@ -32207,7 +32207,7 @@
         <v>3983</v>
       </c>
       <c r="B3983">
-        <v>94.35510011013611</v>
+        <v>94.35510011013608</v>
       </c>
     </row>
     <row r="3984" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>62.57975195639573</v>
+        <v>62.57975195639572</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32247,7 +32247,7 @@
         <v>3988</v>
       </c>
       <c r="B3988">
-        <v>54.14135754021961</v>
+        <v>54.1413575402196</v>
       </c>
     </row>
     <row r="3989" spans="1:2">
@@ -32255,7 +32255,7 @@
         <v>3989</v>
       </c>
       <c r="B3989">
-        <v>54.59503150806737</v>
+        <v>54.59503150806736</v>
       </c>
     </row>
     <row r="3990" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>60.78322648940168</v>
+        <v>60.78322648940167</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>73.23786641939287</v>
+        <v>73.23786641939286</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32447,7 +32447,7 @@
         <v>4013</v>
       </c>
       <c r="B4013">
-        <v>45.68860264314909</v>
+        <v>45.68860264314908</v>
       </c>
     </row>
     <row r="4014" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>48.631035871309</v>
+        <v>48.63103587130899</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32479,7 +32479,7 @@
         <v>4017</v>
       </c>
       <c r="B4017">
-        <v>18.7881395322938</v>
+        <v>18.78813953229379</v>
       </c>
     </row>
     <row r="4018" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>62.43409565018104</v>
+        <v>62.43409565018103</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32639,7 +32639,7 @@
         <v>4037</v>
       </c>
       <c r="B4037">
-        <v>46.60298428377249</v>
+        <v>46.60298428377248</v>
       </c>
     </row>
     <row r="4038" spans="1:2">
@@ -32647,7 +32647,7 @@
         <v>4038</v>
       </c>
       <c r="B4038">
-        <v>46.18037584602283</v>
+        <v>46.18037584602282</v>
       </c>
     </row>
     <row r="4039" spans="1:2">
@@ -32847,7 +32847,7 @@
         <v>4063</v>
       </c>
       <c r="B4063">
-        <v>18.71926783820838</v>
+        <v>18.71926783820837</v>
       </c>
     </row>
     <row r="4064" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>95.22874487638558</v>
+        <v>95.22874487638556</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -32975,7 +32975,7 @@
         <v>4079</v>
       </c>
       <c r="B4079">
-        <v>82.76296824692525</v>
+        <v>82.76296824692524</v>
       </c>
     </row>
     <row r="4080" spans="1:2">
@@ -32983,7 +32983,7 @@
         <v>4080</v>
       </c>
       <c r="B4080">
-        <v>73.06905750112394</v>
+        <v>73.06905750112392</v>
       </c>
     </row>
     <row r="4081" spans="1:2">
@@ -32991,7 +32991,7 @@
         <v>4081</v>
       </c>
       <c r="B4081">
-        <v>69.18909002028639</v>
+        <v>69.18909002028637</v>
       </c>
     </row>
     <row r="4082" spans="1:2">
@@ -33007,7 +33007,7 @@
         <v>4083</v>
       </c>
       <c r="B4083">
-        <v>54.58741166106218</v>
+        <v>54.58741166106217</v>
       </c>
     </row>
     <row r="4084" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>61.03790522199839</v>
+        <v>61.03790522199838</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>85.22945410829914</v>
+        <v>85.22945410829912</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33215,7 +33215,7 @@
         <v>4109</v>
       </c>
       <c r="B4109">
-        <v>44.52921361420481</v>
+        <v>44.5292136142048</v>
       </c>
     </row>
     <row r="4110" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>105.3385234260474</v>
+        <v>105.3385234260473</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>57.2188965172024</v>
+        <v>57.21889651720239</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33535,7 +33535,7 @@
         <v>4149</v>
       </c>
       <c r="B4149">
-        <v>94.15903558527168</v>
+        <v>94.15903558527164</v>
       </c>
     </row>
     <row r="4150" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>51.28332877119417</v>
+        <v>51.28332877119416</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>177.6426655162652</v>
+        <v>177.6426655162651</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -33959,7 +33959,7 @@
         <v>4202</v>
       </c>
       <c r="B4202">
-        <v>67.54115156989364</v>
+        <v>67.54115156989363</v>
       </c>
     </row>
     <row r="4203" spans="1:2">
@@ -33975,7 +33975,7 @@
         <v>4204</v>
       </c>
       <c r="B4204">
-        <v>56.60286119393625</v>
+        <v>56.60286119393624</v>
       </c>
     </row>
     <row r="4205" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>44.62885776734967</v>
+        <v>44.62885776734966</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>58.66637437715078</v>
+        <v>58.66637437715077</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34127,7 +34127,7 @@
         <v>4223</v>
       </c>
       <c r="B4223">
-        <v>53.88169659996566</v>
+        <v>53.88169659996565</v>
       </c>
     </row>
     <row r="4224" spans="1:2">
@@ -34183,7 +34183,7 @@
         <v>4230</v>
       </c>
       <c r="B4230">
-        <v>32.80226907320974</v>
+        <v>32.80226907320973</v>
       </c>
     </row>
     <row r="4231" spans="1:2">
@@ -34215,7 +34215,7 @@
         <v>4234</v>
       </c>
       <c r="B4234">
-        <v>52.45238914441428</v>
+        <v>52.45238914441427</v>
       </c>
     </row>
     <row r="4235" spans="1:2">
@@ -34303,7 +34303,7 @@
         <v>4245</v>
       </c>
       <c r="B4245">
-        <v>92.70979929909132</v>
+        <v>92.7097992990913</v>
       </c>
     </row>
     <row r="4246" spans="1:2">
@@ -34359,7 +34359,7 @@
         <v>4252</v>
       </c>
       <c r="B4252">
-        <v>41.82387485632193</v>
+        <v>41.82387485632192</v>
       </c>
     </row>
     <row r="4253" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>42.45808058398508</v>
+        <v>42.45808058398507</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>45.23258410699204</v>
+        <v>45.23258410699203</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34519,7 +34519,7 @@
         <v>4272</v>
       </c>
       <c r="B4272">
-        <v>47.60177038353035</v>
+        <v>47.60177038353034</v>
       </c>
     </row>
     <row r="4273" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>61.10970762647042</v>
+        <v>61.10970762647041</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>82.29727836649238</v>
+        <v>82.29727836649236</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34799,7 +34799,7 @@
         <v>4307</v>
       </c>
       <c r="B4307">
-        <v>53.35944400907114</v>
+        <v>53.35944400907113</v>
       </c>
     </row>
     <row r="4308" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>89.34124078071781</v>
+        <v>89.3412407807178</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>45.05937912314318</v>
+        <v>45.05937912314317</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34927,7 +34927,7 @@
         <v>4323</v>
       </c>
       <c r="B4323">
-        <v>35.92054492456645</v>
+        <v>35.92054492456644</v>
       </c>
     </row>
     <row r="4324" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>69.21751791103654</v>
+        <v>69.21751791103652</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>57.98879413576575</v>
+        <v>57.98879413576574</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35119,7 +35119,7 @@
         <v>4347</v>
       </c>
       <c r="B4347">
-        <v>40.73599516081102</v>
+        <v>40.73599516081101</v>
       </c>
     </row>
     <row r="4348" spans="1:2">
@@ -35135,7 +35135,7 @@
         <v>4349</v>
       </c>
       <c r="B4349">
-        <v>34.03785657220597</v>
+        <v>34.03785657220596</v>
       </c>
     </row>
     <row r="4350" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>53.31079421665336</v>
+        <v>53.31079421665335</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>68.28965500263472</v>
+        <v>68.2896550026347</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>83.15304579938351</v>
+        <v>83.15304579938349</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -35287,7 +35287,7 @@
         <v>4368</v>
       </c>
       <c r="B4368">
-        <v>68.00742759240384</v>
+        <v>68.00742759240383</v>
       </c>
     </row>
     <row r="4369" spans="1:2">
@@ -35343,7 +35343,7 @@
         <v>4375</v>
       </c>
       <c r="B4375">
-        <v>7.22595952923413</v>
+        <v>7.225959529234129</v>
       </c>
     </row>
     <row r="4376" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>100.6247688402183</v>
+        <v>100.6247688402182</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>85.25465821762401</v>
+        <v>85.254658217624</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>64.55798146735981</v>
+        <v>64.5579814673598</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35671,7 +35671,7 @@
         <v>4416</v>
       </c>
       <c r="B4416">
-        <v>65.64820573118001</v>
+        <v>65.64820573118</v>
       </c>
     </row>
     <row r="4417" spans="1:2">
@@ -35679,7 +35679,7 @@
         <v>4417</v>
       </c>
       <c r="B4417">
-        <v>59.94533638986889</v>
+        <v>59.94533638986888</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35687,7 +35687,7 @@
         <v>4418</v>
       </c>
       <c r="B4418">
-        <v>52.75337310111948</v>
+        <v>52.75337310111947</v>
       </c>
     </row>
     <row r="4419" spans="1:2">
@@ -35695,7 +35695,7 @@
         <v>4419</v>
       </c>
       <c r="B4419">
-        <v>47.14311420802535</v>
+        <v>47.14311420802534</v>
       </c>
     </row>
     <row r="4420" spans="1:2">
@@ -35823,7 +35823,7 @@
         <v>4435</v>
       </c>
       <c r="B4435">
-        <v>83.58151565790639</v>
+        <v>83.58151565790638</v>
       </c>
     </row>
     <row r="4436" spans="1:2">
@@ -35839,7 +35839,7 @@
         <v>4437</v>
       </c>
       <c r="B4437">
-        <v>65.04682395984693</v>
+        <v>65.04682395984692</v>
       </c>
     </row>
     <row r="4438" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>72.97556783979097</v>
+        <v>72.97556783979095</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>104.2655903535082</v>
+        <v>104.2655903535081</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36039,7 +36039,7 @@
         <v>4462</v>
       </c>
       <c r="B4462">
-        <v>98.09468656345489</v>
+        <v>98.09468656345486</v>
       </c>
     </row>
     <row r="4463" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>99.08145675062762</v>
+        <v>99.08145675062759</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36255,7 +36255,7 @@
         <v>4489</v>
       </c>
       <c r="B4489">
-        <v>70.96744508288343</v>
+        <v>70.96744508288342</v>
       </c>
     </row>
     <row r="4490" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>92.8343544905224</v>
+        <v>92.83435449052236</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36431,7 +36431,7 @@
         <v>4511</v>
       </c>
       <c r="B4511">
-        <v>86.75547500660876</v>
+        <v>86.75547500660875</v>
       </c>
     </row>
     <row r="4512" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>71.89208420985997</v>
+        <v>71.89208420985996</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>77.55099289537189</v>
+        <v>77.55099289537188</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36575,7 +36575,7 @@
         <v>4529</v>
       </c>
       <c r="B4529">
-        <v>88.2457412382017</v>
+        <v>88.24574123820169</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36623,7 +36623,7 @@
         <v>4535</v>
       </c>
       <c r="B4535">
-        <v>79.55061659215825</v>
+        <v>79.55061659215824</v>
       </c>
     </row>
     <row r="4536" spans="1:2">
@@ -36647,7 +36647,7 @@
         <v>4538</v>
       </c>
       <c r="B4538">
-        <v>57.64707330468662</v>
+        <v>57.64707330468661</v>
       </c>
     </row>
     <row r="4539" spans="1:2">
@@ -36767,7 +36767,7 @@
         <v>4553</v>
       </c>
       <c r="B4553">
-        <v>77.07152867612193</v>
+        <v>77.07152867612191</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36799,7 +36799,7 @@
         <v>4557</v>
       </c>
       <c r="B4557">
-        <v>85.13274066554089</v>
+        <v>85.13274066554088</v>
       </c>
     </row>
     <row r="4558" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>49.52754017857405</v>
+        <v>49.52754017857404</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>52.72523828140799</v>
+        <v>52.72523828140798</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -36983,7 +36983,7 @@
         <v>4580</v>
       </c>
       <c r="B4580">
-        <v>87.7741899369956</v>
+        <v>87.77418993699558</v>
       </c>
     </row>
     <row r="4581" spans="1:2">
@@ -37023,7 +37023,7 @@
         <v>4585</v>
       </c>
       <c r="B4585">
-        <v>41.89743568702593</v>
+        <v>41.89743568702592</v>
       </c>
     </row>
     <row r="4586" spans="1:2">
@@ -37039,7 +37039,7 @@
         <v>4587</v>
       </c>
       <c r="B4587">
-        <v>30.78916410864496</v>
+        <v>30.78916410864495</v>
       </c>
     </row>
     <row r="4588" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>25.75991854969694</v>
+        <v>25.75991854969693</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>110.6782777504571</v>
+        <v>110.678277750457</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37207,7 +37207,7 @@
         <v>4608</v>
       </c>
       <c r="B4608">
-        <v>63.20106255835778</v>
+        <v>63.20106255835777</v>
       </c>
     </row>
     <row r="4609" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>72.4325072051515</v>
+        <v>72.43250720515148</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>58.76308781990903</v>
+        <v>58.76308781990902</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>61.30840979068281</v>
+        <v>61.3084097906828</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37423,7 +37423,7 @@
         <v>4635</v>
       </c>
       <c r="B4635">
-        <v>54.85498551935999</v>
+        <v>54.85498551935998</v>
       </c>
     </row>
     <row r="4636" spans="1:2">
@@ -37471,7 +37471,7 @@
         <v>4641</v>
       </c>
       <c r="B4641">
-        <v>14.85424698034256</v>
+        <v>14.85424698034255</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37687,7 +37687,7 @@
         <v>4668</v>
       </c>
       <c r="B4668">
-        <v>61.89660336527613</v>
+        <v>61.89660336527612</v>
       </c>
     </row>
     <row r="4669" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>58.94420572180174</v>
+        <v>58.94420572180173</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37791,7 +37791,7 @@
         <v>4681</v>
       </c>
       <c r="B4681">
-        <v>50.40675329455809</v>
+        <v>50.40675329455808</v>
       </c>
     </row>
     <row r="4682" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>70.62103511518572</v>
+        <v>70.62103511518571</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37975,7 +37975,7 @@
         <v>4704</v>
       </c>
       <c r="B4704">
-        <v>50.45774765528516</v>
+        <v>50.45774765528515</v>
       </c>
     </row>
     <row r="4705" spans="1:2">
@@ -38015,7 +38015,7 @@
         <v>4709</v>
       </c>
       <c r="B4709">
-        <v>31.90752319217665</v>
+        <v>31.90752319217664</v>
       </c>
     </row>
     <row r="4710" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>59.3462991868451</v>
+        <v>59.34629918684509</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38055,7 +38055,7 @@
         <v>4714</v>
       </c>
       <c r="B4714">
-        <v>68.15982453250774</v>
+        <v>68.15982453250773</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>116.6109147860787</v>
+        <v>116.6109147860786</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>124.746273748279</v>
+        <v>124.7462737482789</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38359,7 +38359,7 @@
         <v>4752</v>
       </c>
       <c r="B4752">
-        <v>75.49773719851051</v>
+        <v>75.49773719851049</v>
       </c>
     </row>
     <row r="4753" spans="1:2">
@@ -38399,7 +38399,7 @@
         <v>4757</v>
       </c>
       <c r="B4757">
-        <v>53.86645690595527</v>
+        <v>53.86645690595526</v>
       </c>
     </row>
     <row r="4758" spans="1:2">
@@ -38407,7 +38407,7 @@
         <v>4758</v>
       </c>
       <c r="B4758">
-        <v>53.96317034871351</v>
+        <v>53.9631703487135</v>
       </c>
     </row>
     <row r="4759" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>80.90636321700563</v>
+        <v>80.90636321700562</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>87.17544580501047</v>
+        <v>87.17544580501045</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>73.12063800392833</v>
+        <v>73.12063800392832</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38743,7 +38743,7 @@
         <v>4800</v>
       </c>
       <c r="B4800">
-        <v>93.89937464501772</v>
+        <v>93.8993746450177</v>
       </c>
     </row>
     <row r="4801" spans="1:2">
@@ -38951,7 +38951,7 @@
         <v>4826</v>
       </c>
       <c r="B4826">
-        <v>70.59319336651289</v>
+        <v>70.59319336651288</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -38983,7 +38983,7 @@
         <v>4830</v>
       </c>
       <c r="B4830">
-        <v>67.75509342811642</v>
+        <v>67.75509342811641</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -39023,7 +39023,7 @@
         <v>4835</v>
       </c>
       <c r="B4835">
-        <v>88.38612226572049</v>
+        <v>88.38612226572047</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39335,7 +39335,7 @@
         <v>4874</v>
       </c>
       <c r="B4874">
-        <v>69.31892049041336</v>
+        <v>69.31892049041335</v>
       </c>
     </row>
     <row r="4875" spans="1:2">
@@ -39343,7 +39343,7 @@
         <v>4875</v>
       </c>
       <c r="B4875">
-        <v>64.69044957683474</v>
+        <v>64.69044957683472</v>
       </c>
     </row>
     <row r="4876" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>84.1591586751079</v>
+        <v>84.15915867510789</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>99.02723860847529</v>
+        <v>99.02723860847526</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>107.8328510360941</v>
+        <v>107.832851036094</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39415,7 +39415,7 @@
         <v>4884</v>
       </c>
       <c r="B4884">
-        <v>114.6344437013466</v>
+        <v>114.6344437013465</v>
       </c>
     </row>
     <row r="4885" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>130.3764614720021</v>
+        <v>130.376461472002</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39519,7 +39519,7 @@
         <v>4897</v>
       </c>
       <c r="B4897">
-        <v>84.3942016481143</v>
+        <v>84.39420164811429</v>
       </c>
     </row>
     <row r="4898" spans="1:2">
@@ -39535,7 +39535,7 @@
         <v>4899</v>
       </c>
       <c r="B4899">
-        <v>67.2662509356293</v>
+        <v>67.26625093562929</v>
       </c>
     </row>
     <row r="4900" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>85.85135085233851</v>
+        <v>85.8513508523385</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>149.5940086901425</v>
+        <v>149.5940086901424</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>93.81790089626986</v>
+        <v>93.81790089626983</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39775,7 +39775,7 @@
         <v>4929</v>
       </c>
       <c r="B4929">
-        <v>34.41767663831107</v>
+        <v>34.41767663831106</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>48.96455071330561</v>
+        <v>48.9645507133056</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39903,7 +39903,7 @@
         <v>4945</v>
       </c>
       <c r="B4945">
-        <v>68.50682064228278</v>
+        <v>68.50682064228276</v>
       </c>
     </row>
     <row r="4946" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>69.85406820700898</v>
+        <v>69.85406820700896</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>85.20893913559284</v>
+        <v>85.20893913559283</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -40079,7 +40079,7 @@
         <v>4967</v>
       </c>
       <c r="B4967">
-        <v>72.93717553372633</v>
+        <v>72.93717553372632</v>
       </c>
     </row>
     <row r="4968" spans="1:2">
@@ -40087,7 +40087,7 @@
         <v>4968</v>
       </c>
       <c r="B4968">
-        <v>62.34529512546665</v>
+        <v>62.34529512546664</v>
       </c>
     </row>
     <row r="4969" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>40.32569570668513</v>
+        <v>40.32569570668512</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40255,7 +40255,7 @@
         <v>4989</v>
       </c>
       <c r="B4989">
-        <v>75.81571927545806</v>
+        <v>75.81571927545805</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40295,7 +40295,7 @@
         <v>4994</v>
       </c>
       <c r="B4994">
-        <v>34.14512057235602</v>
+        <v>34.14512057235601</v>
       </c>
     </row>
     <row r="4995" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>73.56903669308019</v>
+        <v>73.56903669308018</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>49.49706079055327</v>
+        <v>49.49706079055326</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>90.47982176591714</v>
+        <v>90.47982176591712</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40663,7 +40663,7 @@
         <v>5040</v>
       </c>
       <c r="B5040">
-        <v>45.80583105861363</v>
+        <v>45.80583105861362</v>
       </c>
     </row>
     <row r="5041" spans="1:2">
@@ -40671,7 +40671,7 @@
         <v>5041</v>
       </c>
       <c r="B5041">
-        <v>41.44903699787407</v>
+        <v>41.44903699787406</v>
       </c>
     </row>
     <row r="5042" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>69.45138859988829</v>
+        <v>69.45138859988828</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>61.37171313503366</v>
+        <v>61.37171313503365</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41063,7 +41063,7 @@
         <v>5090</v>
       </c>
       <c r="B5090">
-        <v>51.90757008354284</v>
+        <v>51.90757008354283</v>
       </c>
     </row>
     <row r="5091" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>50.75814546991304</v>
+        <v>50.75814546991303</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>72.2543200136454</v>
+        <v>72.25432001364538</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41239,7 +41239,7 @@
         <v>5112</v>
       </c>
       <c r="B5112">
-        <v>69.9334904584862</v>
+        <v>69.93349045848619</v>
       </c>
     </row>
     <row r="5113" spans="1:2">
@@ -41263,7 +41263,7 @@
         <v>5115</v>
       </c>
       <c r="B5115">
-        <v>58.89819356873191</v>
+        <v>58.8981935687319</v>
       </c>
     </row>
     <row r="5116" spans="1:2">
@@ -41271,7 +41271,7 @@
         <v>5116</v>
       </c>
       <c r="B5116">
-        <v>54.64602586879445</v>
+        <v>54.64602586879444</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41423,7 +41423,7 @@
         <v>5135</v>
       </c>
       <c r="B5135">
-        <v>80.87002240821163</v>
+        <v>80.87002240821161</v>
       </c>
     </row>
     <row r="5136" spans="1:2">
@@ -41439,7 +41439,7 @@
         <v>5137</v>
       </c>
       <c r="B5137">
-        <v>65.1183332932803</v>
+        <v>65.11833329328029</v>
       </c>
     </row>
     <row r="5138" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>32.54759034061303</v>
+        <v>32.54759034061302</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>38.0658249275675</v>
+        <v>38.06582492756749</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>54.02940440345098</v>
+        <v>54.02940440345097</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41631,7 +41631,7 @@
         <v>5161</v>
       </c>
       <c r="B5161">
-        <v>64.65997018881396</v>
+        <v>64.65997018881394</v>
       </c>
     </row>
     <row r="5162" spans="1:2">
@@ -41679,7 +41679,7 @@
         <v>5167</v>
       </c>
       <c r="B5167">
-        <v>15.85420536425507</v>
+        <v>15.85420536425506</v>
       </c>
     </row>
     <row r="5168" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>80.8421806595388</v>
+        <v>80.84218065953878</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41855,7 +41855,7 @@
         <v>5189</v>
       </c>
       <c r="B5189">
-        <v>56.42408786035283</v>
+        <v>56.42408786035282</v>
       </c>
     </row>
     <row r="5190" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>37.78037373591135</v>
+        <v>37.78037373591134</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -41895,7 +41895,7 @@
         <v>5194</v>
       </c>
       <c r="B5194">
-        <v>50.54185904338097</v>
+        <v>50.54185904338096</v>
       </c>
     </row>
     <row r="5195" spans="1:2">
@@ -41927,7 +41927,7 @@
         <v>5198</v>
       </c>
       <c r="B5198">
-        <v>40.48600556483289</v>
+        <v>40.48600556483288</v>
       </c>
     </row>
     <row r="5199" spans="1:2">
@@ -41975,7 +41975,7 @@
         <v>5204</v>
       </c>
       <c r="B5204">
-        <v>63.02551300619963</v>
+        <v>63.02551300619962</v>
       </c>
     </row>
     <row r="5205" spans="1:2">
@@ -42047,7 +42047,7 @@
         <v>5213</v>
       </c>
       <c r="B5213">
-        <v>8.396690407374606</v>
+        <v>8.396690407374605</v>
       </c>
     </row>
     <row r="5214" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>9.072424301216071</v>
+        <v>9.072424301216069</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>45.79029829356458</v>
+        <v>45.79029829356457</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42199,7 +42199,7 @@
         <v>5232</v>
       </c>
       <c r="B5232">
-        <v>26.38852662052166</v>
+        <v>26.38852662052165</v>
       </c>
     </row>
     <row r="5233" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>41.31920652774709</v>
+        <v>41.31920652774708</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>59.10422250891083</v>
+        <v>59.10422250891082</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>33.87490907471026</v>
+        <v>33.87490907471025</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42479,7 +42479,7 @@
         <v>5267</v>
       </c>
       <c r="B5267">
-        <v>46.93942983615571</v>
+        <v>46.9394298361557</v>
       </c>
     </row>
     <row r="5268" spans="1:2">
@@ -42575,7 +42575,7 @@
         <v>5279</v>
       </c>
       <c r="B5279">
-        <v>48.13926266843526</v>
+        <v>48.13926266843525</v>
       </c>
     </row>
     <row r="5280" spans="1:2">
@@ -42639,7 +42639,7 @@
         <v>5287</v>
       </c>
       <c r="B5287">
-        <v>7.510209129631769</v>
+        <v>7.510209129631768</v>
       </c>
     </row>
     <row r="5288" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>50.42228605960714</v>
+        <v>50.42228605960713</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>106.8850592970633</v>
+        <v>106.8850592970632</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>81.35945104277607</v>
+        <v>81.35945104277606</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>64.97795226576152</v>
+        <v>64.9779522657615</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42791,7 +42791,7 @@
         <v>5306</v>
       </c>
       <c r="B5306">
-        <v>45.59950904739604</v>
+        <v>45.59950904739603</v>
       </c>
     </row>
     <row r="5307" spans="1:2">
@@ -42799,7 +42799,7 @@
         <v>5307</v>
       </c>
       <c r="B5307">
-        <v>41.8695939383531</v>
+        <v>41.86959393835309</v>
       </c>
     </row>
     <row r="5308" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>35.24296468318142</v>
+        <v>35.24296468318141</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -42975,7 +42975,7 @@
         <v>5329</v>
       </c>
       <c r="B5329">
-        <v>53.48956755023678</v>
+        <v>53.48956755023677</v>
       </c>
     </row>
     <row r="5330" spans="1:2">
@@ -43023,7 +43023,7 @@
         <v>5335</v>
       </c>
       <c r="B5335">
-        <v>5.406369371497435</v>
+        <v>5.406369371497434</v>
       </c>
     </row>
     <row r="5336" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>65.56145670373625</v>
+        <v>65.56145670373624</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43079,7 +43079,7 @@
         <v>5342</v>
       </c>
       <c r="B5342">
-        <v>71.99934821001003</v>
+        <v>71.99934821001001</v>
       </c>
     </row>
     <row r="5343" spans="1:2">
@@ -43087,7 +43087,7 @@
         <v>5343</v>
       </c>
       <c r="B5343">
-        <v>73.52009382962375</v>
+        <v>73.52009382962373</v>
       </c>
     </row>
     <row r="5344" spans="1:2">
@@ -43175,7 +43175,7 @@
         <v>5354</v>
       </c>
       <c r="B5354">
-        <v>45.15111035824418</v>
+        <v>45.15111035824417</v>
       </c>
     </row>
     <row r="5355" spans="1:2">
@@ -43183,7 +43183,7 @@
         <v>5355</v>
       </c>
       <c r="B5355">
-        <v>40.23630903989342</v>
+        <v>40.23630903989341</v>
       </c>
     </row>
     <row r="5356" spans="1:2">
@@ -43375,7 +43375,7 @@
         <v>5379</v>
       </c>
       <c r="B5379">
-        <v>60.10564624801665</v>
+        <v>60.10564624801664</v>
       </c>
     </row>
     <row r="5380" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>76.61052793230763</v>
+        <v>76.61052793230762</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>80.07316225409143</v>
+        <v>80.07316225409141</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43727,7 +43727,7 @@
         <v>5423</v>
       </c>
       <c r="B5423">
-        <v>83.50473104577712</v>
+        <v>83.50473104577711</v>
       </c>
     </row>
     <row r="5424" spans="1:2">
@@ -43759,7 +43759,7 @@
         <v>5427</v>
       </c>
       <c r="B5427">
-        <v>40.18297011085706</v>
+        <v>40.18297011085705</v>
       </c>
     </row>
     <row r="5428" spans="1:2">
@@ -43775,7 +43775,7 @@
         <v>5429</v>
       </c>
       <c r="B5429">
-        <v>28.62240199851003</v>
+        <v>28.62240199851002</v>
       </c>
     </row>
     <row r="5430" spans="1:2">
@@ -43783,7 +43783,7 @@
         <v>5430</v>
       </c>
       <c r="B5430">
-        <v>27.07941228706192</v>
+        <v>27.07941228706191</v>
       </c>
     </row>
     <row r="5431" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>27.86903358652718</v>
+        <v>27.86903358652717</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>39.40838335567512</v>
+        <v>39.40838335567511</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43871,7 +43871,7 @@
         <v>5441</v>
       </c>
       <c r="B5441">
-        <v>53.5379242716159</v>
+        <v>53.53792427161589</v>
       </c>
     </row>
     <row r="5442" spans="1:2">
@@ -43911,7 +43911,7 @@
         <v>5446</v>
       </c>
       <c r="B5446">
-        <v>62.81626028459543</v>
+        <v>62.81626028459542</v>
       </c>
     </row>
     <row r="5447" spans="1:2">
@@ -43943,7 +43943,7 @@
         <v>5450</v>
       </c>
       <c r="B5450">
-        <v>30.50136834867952</v>
+        <v>30.50136834867951</v>
       </c>
     </row>
     <row r="5451" spans="1:2">
@@ -43991,7 +43991,7 @@
         <v>5456</v>
       </c>
       <c r="B5456">
-        <v>5.840319658443289</v>
+        <v>5.840319658443288</v>
       </c>
     </row>
     <row r="5457" spans="1:2">
@@ -44143,7 +44143,7 @@
         <v>5475</v>
       </c>
       <c r="B5475">
-        <v>30.03890224967191</v>
+        <v>30.0389022496719</v>
       </c>
     </row>
     <row r="5476" spans="1:2">
@@ -44151,7 +44151,7 @@
         <v>5476</v>
       </c>
       <c r="B5476">
-        <v>29.45657009585182</v>
+        <v>29.45657009585181</v>
       </c>
     </row>
     <row r="5477" spans="1:2">
@@ -44183,7 +44183,7 @@
         <v>5480</v>
       </c>
       <c r="B5480">
-        <v>7.10624000994097</v>
+        <v>7.106240009940969</v>
       </c>
     </row>
     <row r="5481" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>7.45804248475005</v>
+        <v>7.458042484750049</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44335,7 +44335,7 @@
         <v>5499</v>
       </c>
       <c r="B5499">
-        <v>48.96220614499632</v>
+        <v>48.96220614499631</v>
       </c>
     </row>
     <row r="5500" spans="1:2">
@@ -44367,7 +44367,7 @@
         <v>5503</v>
       </c>
       <c r="B5503">
-        <v>5.997317813854172</v>
+        <v>5.997317813854171</v>
       </c>
     </row>
     <row r="5504" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>80.40960780647465</v>
+        <v>80.40960780647464</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44447,7 +44447,7 @@
         <v>5513</v>
       </c>
       <c r="B5513">
-        <v>75.89250388758734</v>
+        <v>75.89250388758732</v>
       </c>
     </row>
     <row r="5514" spans="1:2">
@@ -44615,7 +44615,7 @@
         <v>5534</v>
       </c>
       <c r="B5534">
-        <v>62.08006583547813</v>
+        <v>62.08006583547812</v>
       </c>
     </row>
     <row r="5535" spans="1:2">
@@ -44695,7 +44695,7 @@
         <v>5544</v>
       </c>
       <c r="B5544">
-        <v>52.92100973523377</v>
+        <v>52.92100973523376</v>
       </c>
     </row>
     <row r="5545" spans="1:2">
@@ -44847,7 +44847,7 @@
         <v>5563</v>
       </c>
       <c r="B5563">
-        <v>136.679247229453</v>
+        <v>136.6792472294529</v>
       </c>
     </row>
     <row r="5564" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>81.4130830428511</v>
+        <v>81.41308304285108</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>8.549028733270774</v>
+        <v>8.549028733270772</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>50.85749655201924</v>
+        <v>50.85749655201923</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>69.3883783265761</v>
+        <v>69.38837832657609</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45087,7 +45087,7 @@
         <v>5593</v>
       </c>
       <c r="B5593">
-        <v>51.09722866164422</v>
+        <v>51.09722866164421</v>
       </c>
     </row>
     <row r="5594" spans="1:2">
@@ -45223,7 +45223,7 @@
         <v>5610</v>
       </c>
       <c r="B5610">
-        <v>93.076138097418</v>
+        <v>93.07613809741798</v>
       </c>
     </row>
     <row r="5611" spans="1:2">
@@ -45431,7 +45431,7 @@
         <v>5636</v>
       </c>
       <c r="B5636">
-        <v>72.2285297622432</v>
+        <v>72.22852976224318</v>
       </c>
     </row>
     <row r="5637" spans="1:2">
@@ -45439,7 +45439,7 @@
         <v>5637</v>
       </c>
       <c r="B5637">
-        <v>61.34885359401808</v>
+        <v>61.34885359401807</v>
       </c>
     </row>
     <row r="5638" spans="1:2">
@@ -45463,7 +45463,7 @@
         <v>5640</v>
       </c>
       <c r="B5640">
-        <v>30.44246106990859</v>
+        <v>30.44246106990858</v>
       </c>
     </row>
     <row r="5641" spans="1:2">
@@ -45711,7 +45711,7 @@
         <v>5671</v>
       </c>
       <c r="B5671">
-        <v>5.967336646599117</v>
+        <v>5.967336646599116</v>
       </c>
     </row>
     <row r="5672" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>81.86353322927359</v>
+        <v>81.86353322927357</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45815,7 +45815,7 @@
         <v>5684</v>
       </c>
       <c r="B5684">
-        <v>87.04825297423145</v>
+        <v>87.04825297423143</v>
       </c>
     </row>
     <row r="5685" spans="1:2">
@@ -45903,7 +45903,7 @@
         <v>5695</v>
       </c>
       <c r="B5695">
-        <v>14.69932962930617</v>
+        <v>14.69932962930616</v>
       </c>
     </row>
     <row r="5696" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>90.6029116021549</v>
+        <v>90.60291160215488</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -46095,7 +46095,7 @@
         <v>5719</v>
       </c>
       <c r="B5719">
-        <v>6.440294688790796</v>
+        <v>6.440294688790795</v>
       </c>
     </row>
     <row r="5720" spans="1:2">
@@ -46199,7 +46199,7 @@
         <v>5732</v>
       </c>
       <c r="B5732">
-        <v>97.8019085958322</v>
+        <v>97.80190859583216</v>
       </c>
     </row>
     <row r="5733" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>90.88250137303784</v>
+        <v>90.8825013730378</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46231,7 +46231,7 @@
         <v>5736</v>
       </c>
       <c r="B5736">
-        <v>64.04598636281844</v>
+        <v>64.04598636281843</v>
       </c>
     </row>
     <row r="5737" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>35.22772498917103</v>
+        <v>35.22772498917102</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>42.38422668224242</v>
+        <v>42.38422668224241</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>67.46495309984169</v>
+        <v>67.46495309984168</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46399,7 +46399,7 @@
         <v>5757</v>
       </c>
       <c r="B5757">
-        <v>94.8896616846544</v>
+        <v>94.88966168465438</v>
       </c>
     </row>
     <row r="5758" spans="1:2">
@@ -46583,7 +46583,7 @@
         <v>5780</v>
       </c>
       <c r="B5780">
-        <v>79.42606140072718</v>
+        <v>79.42606140072716</v>
       </c>
     </row>
     <row r="5781" spans="1:2">
@@ -46639,7 +46639,7 @@
         <v>5787</v>
       </c>
       <c r="B5787">
-        <v>18.58468961725509</v>
+        <v>18.58468961725508</v>
       </c>
     </row>
     <row r="5788" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>15.53713180752736</v>
+        <v>15.53713180752735</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>56.86017756588091</v>
+        <v>56.8601775658809</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>62.51058719127165</v>
+        <v>62.51058719127164</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>43.79067459677822</v>
+        <v>43.79067459677821</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46943,7 +46943,7 @@
         <v>5825</v>
       </c>
       <c r="B5825">
-        <v>75.14341431276894</v>
+        <v>75.14341431276893</v>
       </c>
     </row>
     <row r="5826" spans="1:2">
@@ -46975,7 +46975,7 @@
         <v>5829</v>
       </c>
       <c r="B5829">
-        <v>94.24314697336747</v>
+        <v>94.24314697336746</v>
       </c>
     </row>
     <row r="5830" spans="1:2">
@@ -46991,7 +46991,7 @@
         <v>5831</v>
       </c>
       <c r="B5831">
-        <v>70.61312219714186</v>
+        <v>70.61312219714185</v>
       </c>
     </row>
     <row r="5832" spans="1:2">
@@ -47007,7 +47007,7 @@
         <v>5833</v>
       </c>
       <c r="B5833">
-        <v>55.7465076189678</v>
+        <v>55.74650761896779</v>
       </c>
     </row>
     <row r="5834" spans="1:2">
@@ -47071,7 +47071,7 @@
         <v>5841</v>
       </c>
       <c r="B5841">
-        <v>21.76647396268972</v>
+        <v>21.76647396268971</v>
       </c>
     </row>
     <row r="5842" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>91.47069494763116</v>
+        <v>91.47069494763112</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47143,7 +47143,7 @@
         <v>5850</v>
       </c>
       <c r="B5850">
-        <v>174.4666546702922</v>
+        <v>174.4666546702921</v>
       </c>
     </row>
     <row r="5851" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>83.42267115495194</v>
+        <v>83.42267115495193</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>96.29112739153295</v>
+        <v>96.29112739153294</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47383,7 +47383,7 @@
         <v>5880</v>
       </c>
       <c r="B5880">
-        <v>65.58929845240908</v>
+        <v>65.58929845240907</v>
       </c>
     </row>
     <row r="5881" spans="1:2">
@@ -47559,7 +47559,7 @@
         <v>5902</v>
       </c>
       <c r="B5902">
-        <v>34.59088162215993</v>
+        <v>34.59088162215992</v>
       </c>
     </row>
     <row r="5903" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>6.088404292670118</v>
+        <v>6.088404292670117</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>5.941282631262123</v>
+        <v>5.941282631262122</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47703,7 +47703,7 @@
         <v>5920</v>
       </c>
       <c r="B5920">
-        <v>58.25343728367695</v>
+        <v>58.25343728367694</v>
       </c>
     </row>
     <row r="5921" spans="1:2">
@@ -47775,7 +47775,7 @@
         <v>5929</v>
       </c>
       <c r="B5929">
-        <v>10.77698407627819</v>
+        <v>10.77698407627818</v>
       </c>
     </row>
     <row r="5930" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>6.303459820839813</v>
+        <v>6.303459820839812</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>5.208634341712625</v>
+        <v>5.208634341712624</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -47855,7 +47855,7 @@
         <v>5939</v>
       </c>
       <c r="B5939">
-        <v>32.03559523607166</v>
+        <v>32.03559523607165</v>
       </c>
     </row>
     <row r="5940" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>56.93901367528081</v>
+        <v>56.9390136752808</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -47943,7 +47943,7 @@
         <v>5950</v>
       </c>
       <c r="B5950">
-        <v>43.3548779622888</v>
+        <v>43.35487796228879</v>
       </c>
     </row>
     <row r="5951" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>8.197314179773294</v>
+        <v>8.197314179773292</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>30.64380087346893</v>
+        <v>30.64380087346892</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48135,7 +48135,7 @@
         <v>5974</v>
       </c>
       <c r="B5974">
-        <v>55.50208637272424</v>
+        <v>55.50208637272423</v>
       </c>
     </row>
     <row r="5975" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>4.418397593066175</v>
+        <v>4.418397593066174</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48423,7 +48423,7 @@
         <v>6010</v>
       </c>
       <c r="B6010">
-        <v>39.12293216401897</v>
+        <v>39.12293216401896</v>
       </c>
     </row>
     <row r="6011" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>69.84674143104245</v>
+        <v>69.84674143104243</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48479,7 +48479,7 @@
         <v>6017</v>
       </c>
       <c r="B6017">
-        <v>67.55639126390403</v>
+        <v>67.55639126390402</v>
       </c>
     </row>
     <row r="6018" spans="1:2">
@@ -48487,7 +48487,7 @@
         <v>6018</v>
       </c>
       <c r="B6018">
-        <v>113.2514414699037</v>
+        <v>113.2514414699036</v>
       </c>
     </row>
     <row r="6019" spans="1:2">
@@ -48535,7 +48535,7 @@
         <v>6024</v>
       </c>
       <c r="B6024">
-        <v>49.3725055991222</v>
+        <v>49.37250559912219</v>
       </c>
     </row>
     <row r="6025" spans="1:2">
@@ -48543,7 +48543,7 @@
         <v>6025</v>
       </c>
       <c r="B6025">
-        <v>46.42450402122773</v>
+        <v>46.42450402122772</v>
       </c>
     </row>
     <row r="6026" spans="1:2">
@@ -48575,7 +48575,7 @@
         <v>6029</v>
       </c>
       <c r="B6029">
-        <v>32.88374282195759</v>
+        <v>32.88374282195758</v>
       </c>
     </row>
     <row r="6030" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>43.54859791884395</v>
+        <v>43.54859791884394</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48719,7 +48719,7 @@
         <v>6047</v>
       </c>
       <c r="B6047">
-        <v>48.98242804666395</v>
+        <v>48.98242804666394</v>
       </c>
     </row>
     <row r="6048" spans="1:2">
@@ -48727,7 +48727,7 @@
         <v>6048</v>
       </c>
       <c r="B6048">
-        <v>44.75341295878074</v>
+        <v>44.75341295878073</v>
       </c>
     </row>
     <row r="6049" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>52.26130682720708</v>
+        <v>52.26130682720707</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>89.99889219147387</v>
+        <v>89.99889219147386</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49111,7 +49111,7 @@
         <v>6096</v>
       </c>
       <c r="B6096">
-        <v>38.13967882931016</v>
+        <v>38.13967882931015</v>
       </c>
     </row>
     <row r="6097" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>19.20608814052874</v>
+        <v>19.20608814052873</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>62.84468817534558</v>
+        <v>62.84468817534557</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>47.79783490839479</v>
+        <v>47.79783490839478</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -49455,7 +49455,7 @@
         <v>6139</v>
       </c>
       <c r="B6139">
-        <v>86.30971395680486</v>
+        <v>86.30971395680484</v>
       </c>
     </row>
     <row r="6140" spans="1:2">
@@ -49647,7 +49647,7 @@
         <v>6163</v>
       </c>
       <c r="B6163">
-        <v>91.89916480615403</v>
+        <v>91.89916480615402</v>
       </c>
     </row>
     <row r="6164" spans="1:2">
@@ -49663,7 +49663,7 @@
         <v>6165</v>
       </c>
       <c r="B6165">
-        <v>70.51435725711299</v>
+        <v>70.51435725711298</v>
       </c>
     </row>
     <row r="6166" spans="1:2">
@@ -49703,7 +49703,7 @@
         <v>6170</v>
       </c>
       <c r="B6170">
-        <v>33.98949985082685</v>
+        <v>33.98949985082684</v>
       </c>
     </row>
     <row r="6171" spans="1:2">
@@ -49807,7 +49807,7 @@
         <v>6183</v>
       </c>
       <c r="B6183">
-        <v>66.89405071652939</v>
+        <v>66.89405071652938</v>
       </c>
     </row>
     <row r="6184" spans="1:2">
@@ -49855,7 +49855,7 @@
         <v>6189</v>
       </c>
       <c r="B6189">
-        <v>56.69429935799859</v>
+        <v>56.69429935799858</v>
       </c>
     </row>
     <row r="6190" spans="1:2">
@@ -49943,7 +49943,7 @@
         <v>6200</v>
       </c>
       <c r="B6200">
-        <v>12.8821426540865</v>
+        <v>12.88214265408649</v>
       </c>
     </row>
     <row r="6201" spans="1:2">
@@ -49967,7 +49967,7 @@
         <v>6203</v>
       </c>
       <c r="B6203">
-        <v>61.38490133177342</v>
+        <v>61.38490133177341</v>
       </c>
     </row>
     <row r="6204" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>76.5774109049389</v>
+        <v>76.57741090493889</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50047,7 +50047,7 @@
         <v>6213</v>
       </c>
       <c r="B6213">
-        <v>67.17950190818554</v>
+        <v>67.17950190818553</v>
       </c>
     </row>
     <row r="6214" spans="1:2">
@@ -50055,7 +50055,7 @@
         <v>6214</v>
       </c>
       <c r="B6214">
-        <v>55.70108160797529</v>
+        <v>55.70108160797528</v>
       </c>
     </row>
     <row r="6215" spans="1:2">
@@ -50111,7 +50111,7 @@
         <v>6221</v>
       </c>
       <c r="B6221">
-        <v>26.63842829518819</v>
+        <v>26.63842829518818</v>
       </c>
     </row>
     <row r="6222" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>4.89554655111071</v>
+        <v>4.895546551110709</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>52.76069987708601</v>
+        <v>52.760699877086</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>65.28860756674254</v>
+        <v>65.28860756674253</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>91.47128108970848</v>
+        <v>91.47128108970846</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50279,7 +50279,7 @@
         <v>6242</v>
       </c>
       <c r="B6242">
-        <v>43.05682471597021</v>
+        <v>43.0568247159702</v>
       </c>
     </row>
     <row r="6243" spans="1:2">
@@ -50311,7 +50311,7 @@
         <v>6246</v>
       </c>
       <c r="B6246">
-        <v>43.82349855310829</v>
+        <v>43.82349855310828</v>
       </c>
     </row>
     <row r="6247" spans="1:2">
@@ -50423,7 +50423,7 @@
         <v>6260</v>
       </c>
       <c r="B6260">
-        <v>61.6981942721024</v>
+        <v>61.69819427210239</v>
       </c>
     </row>
     <row r="6261" spans="1:2">
@@ -50455,7 +50455,7 @@
         <v>6264</v>
       </c>
       <c r="B6264">
-        <v>26.06040428563642</v>
+        <v>26.06040428563641</v>
       </c>
     </row>
     <row r="6265" spans="1:2">
@@ -50679,7 +50679,7 @@
         <v>6292</v>
       </c>
       <c r="B6292">
-        <v>36.62625998566297</v>
+        <v>36.62625998566296</v>
       </c>
     </row>
     <row r="6293" spans="1:2">
@@ -50703,7 +50703,7 @@
         <v>6295</v>
       </c>
       <c r="B6295">
-        <v>5.944887405037657</v>
+        <v>5.944887405037656</v>
       </c>
     </row>
     <row r="6296" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>52.16986866314474</v>
+        <v>52.16986866314473</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>10.5984451995257</v>
+        <v>10.59844519952569</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>8.699403483207909</v>
+        <v>8.699403483207908</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -50887,7 +50887,7 @@
         <v>6318</v>
       </c>
       <c r="B6318">
-        <v>8.773814219924025</v>
+        <v>8.773814219924024</v>
       </c>
     </row>
     <row r="6319" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>3.240281324751432</v>
+        <v>3.240281324751431</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50975,7 +50975,7 @@
         <v>6329</v>
       </c>
       <c r="B6329">
-        <v>42.40708622325801</v>
+        <v>42.407086223258</v>
       </c>
     </row>
     <row r="6330" spans="1:2">
@@ -50991,7 +50991,7 @@
         <v>6331</v>
       </c>
       <c r="B6331">
-        <v>55.80512182670007</v>
+        <v>55.80512182670006</v>
       </c>
     </row>
     <row r="6332" spans="1:2">
@@ -51055,7 +51055,7 @@
         <v>6339</v>
       </c>
       <c r="B6339">
-        <v>3.364221067001316</v>
+        <v>3.364221067001315</v>
       </c>
     </row>
     <row r="6340" spans="1:2">
@@ -51087,7 +51087,7 @@
         <v>6343</v>
       </c>
       <c r="B6343">
-        <v>2.007208375266915</v>
+        <v>2.007208375266914</v>
       </c>
     </row>
     <row r="6344" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>51.11246835565461</v>
+        <v>51.1124683556546</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51175,7 +51175,7 @@
         <v>6354</v>
       </c>
       <c r="B6354">
-        <v>65.2176843753865</v>
+        <v>65.21768437538648</v>
       </c>
     </row>
     <row r="6355" spans="1:2">
@@ -51207,7 +51207,7 @@
         <v>6358</v>
       </c>
       <c r="B6358">
-        <v>30.82462570432298</v>
+        <v>30.82462570432297</v>
       </c>
     </row>
     <row r="6359" spans="1:2">
@@ -51231,7 +51231,7 @@
         <v>6361</v>
       </c>
       <c r="B6361">
-        <v>14.73209497142851</v>
+        <v>14.7320949714285</v>
       </c>
     </row>
     <row r="6362" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>7.939382358647443</v>
+        <v>7.939382358647442</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51311,7 +51311,7 @@
         <v>6371</v>
       </c>
       <c r="B6371">
-        <v>16.43290343719576</v>
+        <v>16.43290343719575</v>
       </c>
     </row>
     <row r="6372" spans="1:2">
@@ -51375,7 +51375,7 @@
         <v>6379</v>
       </c>
       <c r="B6379">
-        <v>44.51661155954237</v>
+        <v>44.51661155954236</v>
       </c>
     </row>
     <row r="6380" spans="1:2">
@@ -51391,7 +51391,7 @@
         <v>6381</v>
       </c>
       <c r="B6381">
-        <v>31.27448974866814</v>
+        <v>31.27448974866813</v>
       </c>
     </row>
     <row r="6382" spans="1:2">
@@ -51431,7 +51431,7 @@
         <v>6386</v>
       </c>
       <c r="B6386">
-        <v>7.885252137806692</v>
+        <v>7.885252137806691</v>
       </c>
     </row>
     <row r="6387" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>6.289773403334328</v>
+        <v>6.289773403334327</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51471,7 +51471,7 @@
         <v>6391</v>
       </c>
       <c r="B6391">
-        <v>2.990145193253974</v>
+        <v>2.990145193253973</v>
       </c>
     </row>
     <row r="6392" spans="1:2">
@@ -51535,7 +51535,7 @@
         <v>6399</v>
       </c>
       <c r="B6399">
-        <v>14.96332802093231</v>
+        <v>14.9633280209323</v>
       </c>
     </row>
     <row r="6400" spans="1:2">
@@ -51599,7 +51599,7 @@
         <v>6407</v>
       </c>
       <c r="B6407">
-        <v>8.664264265672415</v>
+        <v>8.664264265672413</v>
       </c>
     </row>
     <row r="6408" spans="1:2">
@@ -51759,7 +51759,7 @@
         <v>6427</v>
       </c>
       <c r="B6427">
-        <v>44.33080452103108</v>
+        <v>44.33080452103107</v>
       </c>
     </row>
     <row r="6428" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>17.7232659133178</v>
+        <v>17.72326591331779</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>4.949032015666406</v>
+        <v>4.949032015666405</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>19.66075854990795</v>
+        <v>19.66075854990794</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>62.55659934434148</v>
+        <v>62.55659934434147</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -51959,7 +51959,7 @@
         <v>6452</v>
       </c>
       <c r="B6452">
-        <v>47.52264120309179</v>
+        <v>47.52264120309178</v>
       </c>
     </row>
     <row r="6453" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>7.883435097366992</v>
+        <v>7.883435097366991</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52127,7 +52127,7 @@
         <v>6473</v>
       </c>
       <c r="B6473">
-        <v>55.16329625203172</v>
+        <v>55.16329625203171</v>
       </c>
     </row>
     <row r="6474" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>83.55836304585215</v>
+        <v>83.55836304585213</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>4.241118921779926</v>
+        <v>4.241118921779925</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -52327,7 +52327,7 @@
         <v>6498</v>
       </c>
       <c r="B6498">
-        <v>42.12925487860705</v>
+        <v>42.12925487860704</v>
       </c>
     </row>
     <row r="6499" spans="1:2">
@@ -52423,7 +52423,7 @@
         <v>6510</v>
       </c>
       <c r="B6510">
-        <v>8.984121997267406</v>
+        <v>8.984121997267405</v>
       </c>
     </row>
     <row r="6511" spans="1:2">
@@ -52439,7 +52439,7 @@
         <v>6512</v>
       </c>
       <c r="B6512">
-        <v>3.862295297206272</v>
+        <v>3.862295297206271</v>
       </c>
     </row>
     <row r="6513" spans="1:2">
@@ -52599,7 +52599,7 @@
         <v>6532</v>
       </c>
       <c r="B6532">
-        <v>14.246183189328</v>
+        <v>14.24618318932799</v>
       </c>
     </row>
     <row r="6533" spans="1:2">
@@ -52663,7 +52663,7 @@
         <v>6540</v>
       </c>
       <c r="B6540">
-        <v>45.13059538553789</v>
+        <v>45.13059538553788</v>
       </c>
     </row>
     <row r="6541" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>46.17011835966968</v>
+        <v>46.17011835966967</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>56.43932755436322</v>
+        <v>56.43932755436321</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>3.674114383281822</v>
+        <v>3.674114383281821</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>2.692367433711728</v>
+        <v>2.692367433711727</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>5.972875689229816</v>
+        <v>5.972875689229815</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53207,7 +53207,7 @@
         <v>6608</v>
       </c>
       <c r="B6608">
-        <v>6.736560201773549</v>
+        <v>6.736560201773548</v>
       </c>
     </row>
     <row r="6609" spans="1:2">
@@ -53223,7 +53223,7 @@
         <v>6610</v>
       </c>
       <c r="B6610">
-        <v>45.12795774618994</v>
+        <v>45.12795774618993</v>
       </c>
     </row>
     <row r="6611" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>57.06855107436913</v>
+        <v>57.06855107436912</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53271,7 +53271,7 @@
         <v>6616</v>
       </c>
       <c r="B6616">
-        <v>91.62104039046442</v>
+        <v>91.6210403904644</v>
       </c>
     </row>
     <row r="6617" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>60.99511685035383</v>
+        <v>60.99511685035382</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>68.76384394318877</v>
+        <v>68.76384394318876</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>3.369173967554692</v>
+        <v>3.369173967554691</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>61.8429713652011</v>
+        <v>61.84297136520109</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53671,7 +53671,7 @@
         <v>6666</v>
       </c>
       <c r="B6666">
-        <v>98.36548420317796</v>
+        <v>98.36548420317794</v>
       </c>
     </row>
     <row r="6667" spans="1:2">
@@ -53807,7 +53807,7 @@
         <v>6683</v>
       </c>
       <c r="B6683">
-        <v>3.295378680019765</v>
+        <v>3.295378680019764</v>
       </c>
     </row>
     <row r="6684" spans="1:2">
@@ -53831,7 +53831,7 @@
         <v>6686</v>
       </c>
       <c r="B6686">
-        <v>21.508952441018</v>
+        <v>21.50895244101799</v>
       </c>
     </row>
     <row r="6687" spans="1:2">
@@ -53911,7 +53911,7 @@
         <v>6696</v>
       </c>
       <c r="B6696">
-        <v>5.073880278136139</v>
+        <v>5.073880278136138</v>
       </c>
     </row>
     <row r="6697" spans="1:2">
@@ -54007,7 +54007,7 @@
         <v>6708</v>
       </c>
       <c r="B6708">
-        <v>31.60683230651011</v>
+        <v>31.6068323065101</v>
       </c>
     </row>
     <row r="6709" spans="1:2">
@@ -54023,7 +54023,7 @@
         <v>6710</v>
       </c>
       <c r="B6710">
-        <v>36.38682094707665</v>
+        <v>36.38682094707664</v>
       </c>
     </row>
     <row r="6711" spans="1:2">
@@ -54111,7 +54111,7 @@
         <v>6721</v>
       </c>
       <c r="B6721">
-        <v>2.28323147160933</v>
+        <v>2.283231471609329</v>
       </c>
     </row>
     <row r="6722" spans="1:2">
@@ -54175,7 +54175,7 @@
         <v>6729</v>
       </c>
       <c r="B6729">
-        <v>5.370966390027145</v>
+        <v>5.370966390027144</v>
       </c>
     </row>
     <row r="6730" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>6.207449748574357</v>
+        <v>6.207449748574356</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54287,7 +54287,7 @@
         <v>6743</v>
       </c>
       <c r="B6743">
-        <v>3.165049989127065</v>
+        <v>3.165049989127064</v>
       </c>
     </row>
     <row r="6744" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>31.08838963911819</v>
+        <v>31.08838963911818</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>43.18899975440648</v>
+        <v>43.18899975440647</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54471,7 +54471,7 @@
         <v>6766</v>
       </c>
       <c r="B6766">
-        <v>13.88248203034927</v>
+        <v>13.88248203034926</v>
       </c>
     </row>
     <row r="6767" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>2.430019032033251</v>
+        <v>2.43001903203325</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>2.11379538131766</v>
+        <v>2.113795381317659</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>50.49584689031114</v>
+        <v>50.49584689031113</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>67.36032673903959</v>
+        <v>67.36032673903958</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54999,7 +54999,7 @@
         <v>6832</v>
       </c>
       <c r="B6832">
-        <v>46.75069208725781</v>
+        <v>46.7506920872578</v>
       </c>
     </row>
     <row r="6833" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>57.51489826625036</v>
+        <v>57.51489826625035</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>84.11343959307673</v>
+        <v>84.11343959307672</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>71.52779690880392</v>
+        <v>71.52779690880391</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55631,7 +55631,7 @@
         <v>6911</v>
       </c>
       <c r="B6911">
-        <v>16.43785633774914</v>
+        <v>16.43785633774913</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>39.72958921404796</v>
+        <v>39.72958921404795</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55863,7 +55863,7 @@
         <v>6940</v>
       </c>
       <c r="B6940">
-        <v>2.460650816994135</v>
+        <v>2.460650816994134</v>
       </c>
     </row>
     <row r="6941" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>6.797548284918976</v>
+        <v>6.797548284918975</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>30.03509232616932</v>
+        <v>30.03509232616931</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -56015,7 +56015,7 @@
         <v>6959</v>
       </c>
       <c r="B6959">
-        <v>6.928287275265801</v>
+        <v>6.9282872752658</v>
       </c>
     </row>
     <row r="6960" spans="1:2">
@@ -56087,7 +56087,7 @@
         <v>6968</v>
       </c>
       <c r="B6968">
-        <v>2.403727629154942</v>
+        <v>2.403727629154941</v>
       </c>
     </row>
     <row r="6969" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>33.90538846273104</v>
+        <v>33.90538846273103</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>42.0477811298592</v>
+        <v>42.04778112985919</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56359,7 +56359,7 @@
         <v>7002</v>
       </c>
       <c r="B7002">
-        <v>46.72255726754632</v>
+        <v>46.72255726754631</v>
       </c>
     </row>
     <row r="7003" spans="1:2">
@@ -56415,7 +56415,7 @@
         <v>7009</v>
       </c>
       <c r="B7009">
-        <v>5.361734652309313</v>
+        <v>5.361734652309312</v>
       </c>
     </row>
     <row r="7010" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>47.88956614349579</v>
+        <v>47.88956614349578</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56511,7 +56511,7 @@
         <v>7021</v>
       </c>
       <c r="B7021">
-        <v>52.73520269672248</v>
+        <v>52.73520269672247</v>
       </c>
     </row>
     <row r="7022" spans="1:2">
@@ -56543,7 +56543,7 @@
         <v>7025</v>
       </c>
       <c r="B7025">
-        <v>45.21441370259503</v>
+        <v>45.21441370259502</v>
       </c>
     </row>
     <row r="7026" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>52.20796789817072</v>
+        <v>52.20796789817071</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>22.06326700354206</v>
+        <v>22.06326700354205</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>84.04251640172069</v>
+        <v>84.04251640172068</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -56975,7 +56975,7 @@
         <v>7079</v>
       </c>
       <c r="B7079">
-        <v>33.36291397016889</v>
+        <v>33.36291397016888</v>
       </c>
     </row>
     <row r="7080" spans="1:2">
@@ -57111,7 +57111,7 @@
         <v>7096</v>
       </c>
       <c r="B7096">
-        <v>56.64623570765813</v>
+        <v>56.64623570765812</v>
       </c>
     </row>
     <row r="7097" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>88.25834329286414</v>
+        <v>88.25834329286413</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57151,7 +57151,7 @@
         <v>7101</v>
       </c>
       <c r="B7101">
-        <v>63.67525149891184</v>
+        <v>63.67525149891183</v>
       </c>
     </row>
     <row r="7102" spans="1:2">
@@ -57167,7 +57167,7 @@
         <v>7103</v>
       </c>
       <c r="B7103">
-        <v>45.36212150608035</v>
+        <v>45.36212150608034</v>
       </c>
     </row>
     <row r="7104" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>57.51724283455965</v>
+        <v>57.51724283455964</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57303,7 +57303,7 @@
         <v>7120</v>
       </c>
       <c r="B7120">
-        <v>89.71080336046977</v>
+        <v>89.71080336046975</v>
       </c>
     </row>
     <row r="7121" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>32.87641604599106</v>
+        <v>32.87641604599105</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>71.13830549842299</v>
+        <v>71.13830549842298</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>27.06681023239948</v>
+        <v>27.06681023239947</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57703,7 +57703,7 @@
         <v>7170</v>
       </c>
       <c r="B7170">
-        <v>37.4084665878501</v>
+        <v>37.40846658785009</v>
       </c>
     </row>
     <row r="7171" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>6.462187095378798</v>
+        <v>6.462187095378797</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>7.16810730620238</v>
+        <v>7.168107306202379</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57911,7 +57911,7 @@
         <v>7196</v>
       </c>
       <c r="B7196">
-        <v>9.869313762440134</v>
+        <v>9.869313762440132</v>
       </c>
     </row>
     <row r="7197" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>6.081927422715703</v>
+        <v>6.081927422715702</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>28.9124250983693</v>
+        <v>28.91242509836929</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58351,7 +58351,7 @@
         <v>7251</v>
       </c>
       <c r="B7251">
-        <v>2.072788881588164</v>
+        <v>2.072788881588163</v>
       </c>
     </row>
     <row r="7252" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>35.36283073799391</v>
+        <v>35.3628307379939</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>1.766972183455437</v>
+        <v>1.766972183455436</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>1.606002915470693</v>
+        <v>1.606002915470692</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>2.859875116569006</v>
+        <v>2.859875116569005</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -58935,7 +58935,7 @@
         <v>7324</v>
       </c>
       <c r="B7324">
-        <v>1.368717949018535</v>
+        <v>1.368717949018534</v>
       </c>
     </row>
     <row r="7325" spans="1:2">
@@ -58943,7 +58943,7 @@
         <v>7325</v>
       </c>
       <c r="B7325">
-        <v>1.43948581272409</v>
+        <v>1.439485812724089</v>
       </c>
     </row>
     <row r="7326" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>31.72025079847205</v>
+        <v>31.72025079847204</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59087,7 +59087,7 @@
         <v>7343</v>
       </c>
       <c r="B7343">
-        <v>7.688542856657198</v>
+        <v>7.688542856657197</v>
       </c>
     </row>
     <row r="7344" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>3.392912721686261</v>
+        <v>3.39291272168626</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>2.171322295496495</v>
+        <v>2.171322295496494</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>27.02191174927656</v>
+        <v>27.02191174927655</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>19.26203540180919</v>
+        <v>19.26203540180918</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>2.004661587940948</v>
+        <v>2.004661587940947</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>9.431846623030344</v>
+        <v>9.431846623030342</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>13.80939011330713</v>
+        <v>13.80939011330712</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>7.947559040626095</v>
+        <v>7.947559040626094</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59671,7 +59671,7 @@
         <v>7416</v>
       </c>
       <c r="B7416">
-        <v>2.995947999819469</v>
+        <v>2.995947999819468</v>
       </c>
     </row>
     <row r="7417" spans="1:2">
@@ -59783,7 +59783,7 @@
         <v>7430</v>
       </c>
       <c r="B7430">
-        <v>32.44560161915888</v>
+        <v>32.44560161915887</v>
       </c>
     </row>
     <row r="7431" spans="1:2">
@@ -59791,7 +59791,7 @@
         <v>7431</v>
       </c>
       <c r="B7431">
-        <v>30.84895060053187</v>
+        <v>30.84895060053186</v>
       </c>
     </row>
     <row r="7432" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>27.36278267434357</v>
+        <v>27.36278267434356</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>8.184565589591525</v>
+        <v>8.184565589591523</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>7.150200665740172</v>
+        <v>7.150200665740171</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>6.063376025968439</v>
+        <v>6.063376025968438</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60295,7 +60295,7 @@
         <v>7494</v>
       </c>
       <c r="B7494">
-        <v>3.094009569355555</v>
+        <v>3.094009569355554</v>
       </c>
     </row>
     <row r="7495" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>1.632364655398281</v>
+        <v>1.63236465539828</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>2.185841034751778</v>
+        <v>2.185841034751777</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>9.43870448533502</v>
+        <v>9.438704485335018</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60687,7 +60687,7 @@
         <v>7543</v>
       </c>
       <c r="B7543">
-        <v>1.925508961819292</v>
+        <v>1.925508961819291</v>
       </c>
     </row>
     <row r="7544" spans="1:2">
@@ -60735,7 +60735,7 @@
         <v>7549</v>
       </c>
       <c r="B7549">
-        <v>43.17405313143475</v>
+        <v>43.17405313143474</v>
       </c>
     </row>
     <row r="7550" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>34.98066610357952</v>
+        <v>34.98066610357951</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -60775,7 +60775,7 @@
         <v>7554</v>
       </c>
       <c r="B7554">
-        <v>8.955195885751532</v>
+        <v>8.955195885751531</v>
       </c>
     </row>
     <row r="7555" spans="1:2">
@@ -60807,7 +60807,7 @@
         <v>7558</v>
       </c>
       <c r="B7558">
-        <v>9.827258068392233</v>
+        <v>9.827258068392229</v>
       </c>
     </row>
     <row r="7559" spans="1:2">
@@ -60999,7 +60999,7 @@
         <v>7582</v>
       </c>
       <c r="B7582">
-        <v>6.2270562010608</v>
+        <v>6.227056201060799</v>
       </c>
     </row>
     <row r="7583" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>1.72735190973881</v>
+        <v>1.727351909738809</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61135,7 +61135,7 @@
         <v>7599</v>
       </c>
       <c r="B7599">
-        <v>4.432113317675525</v>
+        <v>4.432113317675524</v>
       </c>
     </row>
     <row r="7600" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>7.901312430725334</v>
+        <v>7.901312430725333</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>6.266151877618224</v>
+        <v>6.266151877618223</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61303,7 +61303,7 @@
         <v>7620</v>
       </c>
       <c r="B7620">
-        <v>0.1641385381968277</v>
+        <v>0.1641385381968276</v>
       </c>
     </row>
     <row r="7621" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>6.828848271848007</v>
+        <v>6.828848271848006</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>14.79281929063914</v>
+        <v>14.79281929063913</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>0.8638122329023822</v>
+        <v>0.8638122329023821</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>0.8617812506044591</v>
+        <v>0.861781250604459</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>1.887324736192105</v>
+        <v>1.887324736192104</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>1.001699225882159</v>
+        <v>1.001699225882158</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61767,7 +61767,7 @@
         <v>7678</v>
       </c>
       <c r="B7678">
-        <v>4.793909514902956</v>
+        <v>4.793909514902955</v>
       </c>
     </row>
     <row r="7679" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>26.22528605198729</v>
+        <v>26.22528605198728</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -62047,7 +62047,7 @@
         <v>7713</v>
       </c>
       <c r="B7713">
-        <v>0.6597439379721008</v>
+        <v>0.6597439379721007</v>
       </c>
     </row>
     <row r="7714" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>5.960009870632583</v>
+        <v>5.960009870632582</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62207,7 +62207,7 @@
         <v>7733</v>
       </c>
       <c r="B7733">
-        <v>0.989255429580598</v>
+        <v>0.9892554295805978</v>
       </c>
     </row>
     <row r="7734" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>1.129867983219925</v>
+        <v>1.129867983219924</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62375,7 +62375,7 @@
         <v>7754</v>
       </c>
       <c r="B7754">
-        <v>0.9129162854300906</v>
+        <v>0.9129162854300904</v>
       </c>
     </row>
     <row r="7755" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>0.7348228766563644</v>
+        <v>0.7348228766563643</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>0.7385683245304563</v>
+        <v>0.7385683245304562</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>3.566967611547234</v>
+        <v>3.566967611547233</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>0.804987014022277</v>
+        <v>0.8049870140222769</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>0.8774957196974804</v>
+        <v>0.8774957196974803</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>1.015869210601435</v>
+        <v>1.015869210601434</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62767,7 +62767,7 @@
         <v>7803</v>
       </c>
       <c r="B7803">
-        <v>0.6393491243916579</v>
+        <v>0.6393491243916578</v>
       </c>
     </row>
     <row r="7804" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>7.081797885316614</v>
+        <v>7.081797885316613</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>3.523006955748032</v>
+        <v>3.523006955748031</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>4.442341496924806</v>
+        <v>4.442341496924805</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>0.8721647575042305</v>
+        <v>0.8721647575042304</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>0.8765080702971917</v>
+        <v>0.8765080702971916</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>7.419034729504224</v>
+        <v>7.419034729504223</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>16.88265025312546</v>
+        <v>16.88265025312545</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63879,7 +63879,7 @@
         <v>7942</v>
       </c>
       <c r="B7942">
-        <v>5.023149681343861</v>
+        <v>5.02314968134386</v>
       </c>
     </row>
     <row r="7943" spans="1:2">
@@ -64023,7 +64023,7 @@
         <v>7960</v>
       </c>
       <c r="B7960">
-        <v>8.323598490332467</v>
+        <v>8.323598490332465</v>
       </c>
     </row>
     <row r="7961" spans="1:2">
@@ -64031,7 +64031,7 @@
         <v>7961</v>
       </c>
       <c r="B7961">
-        <v>4.50637751887231</v>
+        <v>4.506377518872309</v>
       </c>
     </row>
     <row r="7962" spans="1:2">
@@ -64255,7 +64255,7 @@
         <v>7989</v>
       </c>
       <c r="B7989">
-        <v>4.279892220194823</v>
+        <v>4.279892220194822</v>
       </c>
     </row>
     <row r="7990" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>1.610727220613914</v>
+        <v>1.610727220613913</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>10.04594767744133</v>
+        <v>10.04594767744132</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64727,7 +64727,7 @@
         <v>8048</v>
       </c>
       <c r="B8048">
-        <v>1.35063546593313</v>
+        <v>1.350635465933129</v>
       </c>
     </row>
     <row r="8049" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>26.19682885413328</v>
+        <v>26.19682885413327</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -64783,7 +64783,7 @@
         <v>8055</v>
       </c>
       <c r="B8055">
-        <v>39.65046003360939</v>
+        <v>39.65046003360938</v>
       </c>
     </row>
     <row r="8056" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>2.563457206646148</v>
+        <v>2.563457206646147</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>1.477570394198132</v>
+        <v>1.477570394198131</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -64983,7 +64983,7 @@
         <v>8080</v>
       </c>
       <c r="B8080">
-        <v>39.451757869397</v>
+        <v>39.45175786939699</v>
       </c>
     </row>
     <row r="8081" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>12.38538724355552</v>
+        <v>12.38538724355551</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65055,7 +65055,7 @@
         <v>8089</v>
       </c>
       <c r="B8089">
-        <v>8.977000371027936</v>
+        <v>8.977000371027934</v>
       </c>
     </row>
     <row r="8090" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>6.901266125501225</v>
+        <v>6.901266125501224</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>4.533076290494359</v>
+        <v>4.533076290494358</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>39.28353509320539</v>
+        <v>39.28353509320538</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65271,7 +65271,7 @@
         <v>8116</v>
       </c>
       <c r="B8116">
-        <v>5.959834028009386</v>
+        <v>5.959834028009385</v>
       </c>
     </row>
     <row r="8117" spans="1:2">
@@ -65279,7 +65279,7 @@
         <v>8117</v>
       </c>
       <c r="B8117">
-        <v>5.79293007149175</v>
+        <v>5.792930071491749</v>
       </c>
     </row>
     <row r="8118" spans="1:2">
@@ -65351,7 +65351,7 @@
         <v>8126</v>
       </c>
       <c r="B8126">
-        <v>46.77618926762134</v>
+        <v>46.77618926762133</v>
       </c>
     </row>
     <row r="8127" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>47.16362918073164</v>
+        <v>47.16362918073163</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>27.66312187476372</v>
+        <v>27.66312187476371</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65455,7 +65455,7 @@
         <v>8139</v>
       </c>
       <c r="B8139">
-        <v>6.743212914351162</v>
+        <v>6.743212914351161</v>
       </c>
     </row>
     <row r="8140" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>3.845179948548449</v>
+        <v>3.845179948548448</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -65583,7 +65583,7 @@
         <v>8155</v>
       </c>
       <c r="B8155">
-        <v>61.98335239271989</v>
+        <v>61.98335239271988</v>
       </c>
     </row>
     <row r="8156" spans="1:2">
@@ -65615,7 +65615,7 @@
         <v>8159</v>
       </c>
       <c r="B8159">
-        <v>40.51941566324028</v>
+        <v>40.51941566324027</v>
       </c>
     </row>
     <row r="8160" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>37.94859651210296</v>
+        <v>37.94859651210295</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65791,7 +65791,7 @@
         <v>8181</v>
       </c>
       <c r="B8181">
-        <v>45.03095123239303</v>
+        <v>45.03095123239302</v>
       </c>
     </row>
     <row r="8182" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>4.215621741416389</v>
+        <v>4.215621741416388</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -65887,7 +65887,7 @@
         <v>8193</v>
       </c>
       <c r="B8193">
-        <v>2.246316243579547</v>
+        <v>2.246316243579546</v>
       </c>
     </row>
     <row r="8194" spans="1:2">
@@ -65983,7 +65983,7 @@
         <v>8205</v>
       </c>
       <c r="B8205">
-        <v>3.716228691537457</v>
+        <v>3.716228691537456</v>
       </c>
     </row>
     <row r="8206" spans="1:2">
@@ -66095,7 +66095,7 @@
         <v>8219</v>
       </c>
       <c r="B8219">
-        <v>6.936200193309658</v>
+        <v>6.936200193309657</v>
       </c>
     </row>
     <row r="8220" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>29.84254465376881</v>
+        <v>29.8425446537688</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66143,7 +66143,7 @@
         <v>8225</v>
       </c>
       <c r="B8225">
-        <v>6.345134522537457</v>
+        <v>6.345134522537456</v>
       </c>
     </row>
     <row r="8226" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>8.547123771519475</v>
+        <v>8.547123771519473</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>1.463951383031539</v>
+        <v>1.463951383031538</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>31.68977141045127</v>
+        <v>31.68977141045126</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>6.883095721104222</v>
+        <v>6.883095721104221</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66663,7 +66663,7 @@
         <v>8290</v>
       </c>
       <c r="B8290">
-        <v>0.481404349525899</v>
+        <v>0.4814043495258989</v>
       </c>
     </row>
     <row r="8291" spans="1:2">
@@ -67135,7 +67135,7 @@
         <v>8349</v>
       </c>
       <c r="B8349">
-        <v>3.282483554318666</v>
+        <v>3.282483554318665</v>
       </c>
     </row>
     <row r="8350" spans="1:2">
@@ -67199,7 +67199,7 @@
         <v>8357</v>
       </c>
       <c r="B8357">
-        <v>0.6991444084097321</v>
+        <v>0.699144408409732</v>
       </c>
     </row>
     <row r="8358" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>23.26740798008993</v>
+        <v>23.26740798008992</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67311,7 +67311,7 @@
         <v>8371</v>
       </c>
       <c r="B8371">
-        <v>9.94372449915625</v>
+        <v>9.943724499156248</v>
       </c>
     </row>
     <row r="8372" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>6.022639151594512</v>
+        <v>6.022639151594511</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>2.897212366894462</v>
+        <v>2.897212366894461</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>0.568935876642883</v>
+        <v>0.5689358766428829</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -68007,7 +68007,7 @@
         <v>8458</v>
       </c>
       <c r="B8458">
-        <v>0.6510602430965653</v>
+        <v>0.6510602430965652</v>
       </c>
     </row>
     <row r="8459" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>19.17147645086284</v>
+        <v>19.17147645086283</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>6.765486313289424</v>
+        <v>6.765486313289423</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>3.024786190023745</v>
+        <v>3.024786190023744</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>19.46586630919816</v>
+        <v>19.46586630919815</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>8.317795683766972</v>
+        <v>8.31779568376697</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>1.526782883010145</v>
+        <v>1.526782883010144</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>3.625347362448574</v>
+        <v>3.625347362448573</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>2.887406209940853</v>
+        <v>2.887406209940852</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68543,7 +68543,7 @@
         <v>8525</v>
       </c>
       <c r="B8525">
-        <v>2.858837645092145</v>
+        <v>2.858837645092144</v>
       </c>
     </row>
     <row r="8526" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>0.3518845346999041</v>
+        <v>0.351884534699904</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68759,7 +68759,7 @@
         <v>8552</v>
       </c>
       <c r="B8552">
-        <v>0.6766512061924739</v>
+        <v>0.6766512061924738</v>
       </c>
     </row>
     <row r="8553" spans="1:2">
@@ -68951,7 +68951,7 @@
         <v>8576</v>
       </c>
       <c r="B8576">
-        <v>0.6332415239459555</v>
+        <v>0.6332415239459553</v>
       </c>
     </row>
     <row r="8577" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>0.5211828816034034</v>
+        <v>0.5211828816034033</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>0.8094211788372232</v>
+        <v>0.8094211788372231</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>0.6314508598997346</v>
+        <v>0.6314508598997345</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69287,7 +69287,7 @@
         <v>8618</v>
       </c>
       <c r="B8618">
-        <v>0.5170183421440258</v>
+        <v>0.5170183421440256</v>
       </c>
     </row>
     <row r="8619" spans="1:2">
@@ -69327,7 +69327,7 @@
         <v>8623</v>
       </c>
       <c r="B8623">
-        <v>0.5773528768732369</v>
+        <v>0.5773528768732368</v>
       </c>
     </row>
     <row r="8624" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>0.5641383037399968</v>
+        <v>0.5641383037399967</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>0.5359184934272959</v>
+        <v>0.5359184934272958</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>0.6789811209498317</v>
+        <v>0.6789811209498315</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>0.8581178626211923</v>
+        <v>0.8581178626211922</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>0.8377318411719091</v>
+        <v>0.837731841171909</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>0.9473023103962264</v>
+        <v>0.947302310396226</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>1.802545146128151</v>
+        <v>1.80254514612815</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>0.8805876191553577</v>
+        <v>0.8805876191553575</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -70143,7 +70143,7 @@
         <v>8725</v>
       </c>
       <c r="B8725">
-        <v>7.364230445274552</v>
+        <v>7.364230445274551</v>
       </c>
     </row>
     <row r="8726" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>0.6819469998610844</v>
+        <v>0.6819469998610843</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70239,7 +70239,7 @@
         <v>8737</v>
       </c>
       <c r="B8737">
-        <v>0.6361253429663831</v>
+        <v>0.636125342966383</v>
       </c>
     </row>
     <row r="8738" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>0.6371862601263372</v>
+        <v>0.6371862601263371</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>0.8303288667353235</v>
+        <v>0.8303288667353234</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
